--- a/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_potatoes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_potatoes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -103,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ingredients</t>
+          <t>recipe_ingredients</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -127,100 +500,68 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699653550-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699653556-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F_CqfcpP15HfJyBefcIDE3-eX_k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1446x0:1448x2):format(webp)/7619056-1bdd9883c75944f49d56d8a767e1d7c8.jpg"
@@ -231,69 +572,65 @@
 Rainbow Potato Pancakes with Harissa and Eggs</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278061/rainbow-potato-pancakes-with-harissa-and-eggs/</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rainbow Potato Pancakes with Harissa and Eggs</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n16 potato pancakes"}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup vegetable oil for frying, or more as needed\n\n\n1 pound russet potatoes, peeled and shredded\n\n\n6 tablespoons shredded yellow onion\n\n\n1 pound purple potatoes, peeled and shredded\n\n\n8  eggs, divided\n\n\n½ cup potato starch\n\n\n2 tablespoons potato starch\n\n\n2 teaspoons kosher salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 teaspoon balsamic vinegar\n\n\n2 teaspoons white vinegar\n\n\n½ cup microgreens\n\n\n¼ cup sour cream\n\n\n¼ cup harissa"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup vegetable oil for frying, or more as needed\n\n\n1 pound russet potatoes, peeled and shredded\n\n\n6 tablespoons shredded yellow onion\n\n\n1 pound purple potatoes, peeled and shredded\n\n\n8  eggs, divided\n\n\n½ cup potato starch\n\n\n2 tablespoons potato starch\n\n\n2 teaspoons kosher salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 teaspoon balsamic vinegar\n\n\n2 teaspoons white vinegar\n\n\n½ cup microgreens\n\n\n¼ cup sour cream\n\n\n¼ cup harissa'}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oil in a 10-inch skillet to 350 degrees F (175 degrees C). Preheat oven to 200 degrees F (95 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Put shredded russet potatoes and 3 tablespoons onion on a clean kitchen towel; squeeze out as much moisture as possible, then transfer to a bowl. Put shredded purple potatoes and remaining 3 tablespoons onion in the same towel; squeeze out as much moisture as possible, then transfer to a separate bowl."},{"recipe_directions":"Whisk 4 eggs, 1/2 cup plus 2 tablespoons potato starch, salt, and pepper in a large bowl until smooth. Transfer 1/2 of the egg mixture to another large bowl; stir in balsamic vinegar and fold in purple potato mixture. Fold russet potato mixture into remaining egg mixture."},{"recipe_directions":"Drop four 3-tablespoon portions of batter at a time into the hot oil and flatten with a spatula. Fry, turning once, until golden brown, about 8 minutes. Transfer pancakes to prepared baking sheet; keep warm in oven. Repeat with remaining potato mixture."},{"recipe_directions":"Fill a large saucepan with 2 to 3 inches of water and bring to a boil. Reduce the heat to medium-low, pour in white vinegar, and keep the water at a gentle simmer. Crack an egg into a small bowl then gently slip egg into the simmering water, holding the bowl just above the surface of water. Repeat with the remaining eggs. Cook eggs until the whites are firm and the yolks have thickened but are not hard, 2 1/2 to 3 minutes."},{"recipe_directions":"Remove the eggs from the water with a slotted spoon and dab on a kitchen towel to remove excess water. Top pancakes with poached eggs and microgreens. Serve with sour cream and harissa."}]</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"485\nCalories\n\n\n19g \nFat\n\n\n62g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699653562-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -305,69 +642,65 @@
 Red Potato and Apple Vegan Latkes</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263664/red-potato-and-apple-vegan-latkes/</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Red Potato and Apple Vegan Latkes</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 small latkes"}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6 small red potatoes, chopped\n\n\n1  green apple, cored and chopped\n\n\n¼ cup all purpose flour, or more as needed\n\n\n  salt to taste\n\n\n⅓ cup vegetable oil for frying\n\n\n1 pinch white sugar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 small red potatoes, chopped\n\n\n1  green apple, cored and chopped\n\n\n¼ cup all purpose flour, or more as needed\n\n\n  salt to taste\n\n\n⅓ cup vegetable oil for frying\n\n\n1 pinch white sugar, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Shred potatoes and apple in a food processor, in batches if necessary. Combine shredded potatoes and apple in a bowl with flour and salt. Dough should be thick and not loose."},{"recipe_directions":"Heat oil in a skillet over medium-high heat. Add heaping tablespoons of the dough and flatten slightly. Cook until golden, 2 to 3 minutes. Flip and brown the other side, 1 to 2 minutes more. Repeat with remaining dough. Sprinkle sugar on top of latkes."}]</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n2g \nFat\n\n\n51g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699653570-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1xN2qgEZ7aur8xBkEdVbrIEv0XU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1071564-472d0bb1112a4449a810f792357847e8.jpg"
@@ -380,69 +713,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235268/potato-latkes-with-caramelized-pears-goat-cheese-and-sherry-vinegar-drizzle/</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Potato Latkes with Caramelized Pears, Goat Cheese, and Sherry Vinegar Drizzle</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups peeled and shredded potatoes\n\n\n3  eggs, beaten\n\n\n2 tablespoons all-purpose flour\n\n\n1 tablespoon grated onion\n\n\n1 ½ teaspoons salt\n\n\n½ cup oil for frying\n\n\n1 tablespoon oil\n\n\n2  pears, cored and cut into 1/2-inch slices\n\n\n¼ cup brown sugar, divided\n\n\n8 ounces goat cheese, sliced into 1/4-inch thick rounds\n\n\n¼ cup sherry vinegar"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups peeled and shredded potatoes\n\n\n3  eggs, beaten\n\n\n2 tablespoons all-purpose flour\n\n\n1 tablespoon grated onion\n\n\n1 ½ teaspoons salt\n\n\n½ cup oil for frying\n\n\n1 tablespoon oil\n\n\n2  pears, cored and cut into 1/2-inch slices\n\n\n¼ cup brown sugar, divided\n\n\n8 ounces goat cheese, sliced into 1/4-inch thick rounds\n\n\n¼ cup sherry vinegar'}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place shredded potatoes in cheesecloth and wring out any excess moisture."},{"recipe_directions":"Mix potatoes, eggs, flour, onion, and salt together in a bowl."},{"recipe_directions":"Heat 1/2 cup oil in a large skillet over medium-high heat until oil shimmers. Working in batches, drop spoonfuls of the potato mixture into the hot oil, pressing each down to form a pancake. Cook latkes until browned and crisp, 3 to 5 minutes per side; transfer to paper towels to drain."},{"recipe_directions":"Heat 1 tablespoon oil in a separate skillet over medium-high heat. Cook pears in hot oil and sprinkle 2 tablespoons brown sugar over pears. Cook pears until browned and sugar is melted, 3 to 5 minutes per side."},{"recipe_directions":"Place latkes on a serving platter. Top each latke with 1 round of goat cheese and a pear. Sprinkle brown sugar on the pears and drizzle sherry vinegar over the top."}]</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"329\nCalories\n\n\n18g \nFat\n\n\n30g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699653581-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AsEb8mqNUtduuXfLEAFRdJKSI6s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3886526-7b0aa25d0b7047c5995db9634bdcffc1.jpg"
@@ -453,69 +782,65 @@
 Apple-Potato Latkes</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255070/apple-potato-latkes/</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Apple-Potato Latkes</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n8 small latkes"}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1  russet potato, peeled\n\n\n1  firm apple, peeled\n\n\n1  egg, lightly beaten\n\n\n3 tablespoons all-purpose flour\n\n\n1 teaspoon maple syrup\n\n\n½ teaspoon sea salt\n\n\n1 pinch ground nutmeg\n\n\n2 tablespoons vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  russet potato, peeled\n\n\n1  firm apple, peeled\n\n\n1  egg, lightly beaten\n\n\n3 tablespoons all-purpose flour\n\n\n1 teaspoon maple syrup\n\n\n½ teaspoon sea salt\n\n\n1 pinch ground nutmeg\n\n\n2 tablespoons vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make a deep vertical cut on each side of the potato and apple."},{"recipe_directions":"Attach potato to a spiralizer fitted with the small shredded blade and cut into thin shreds. Repeat with apple. Spread shredded potato and apple on several layers of paper towels; squeeze to release as much moisture as possible. Transfer to a bowl."},{"recipe_directions":"Mix egg, flour, maple syrup, salt, and nutmeg into the bowl."},{"recipe_directions":"Heat vegetable oil in a skillet over medium heat. Spoon 2 tablespoons of the potato mixture into the skillet; flatten slightly with a spatula. Cook until golden brown, 3 to 4 minutes per side. Drain on a plate lined with paper towels. Repeat with remaining mixture, adding more oil if needed."}]</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"164\nCalories\n\n\n8g \nFat\n\n\n20g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699653589-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W_d4F9KRZHhRPKK7z7QJ4_jt6h8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1035026-7db5d3e5084e425e941f162368ff6764.jpg"
@@ -528,69 +853,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220616/kicked-up-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kicked-Up Potato Pancakes</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 large potatoes, peeled and shredded\n\n\n¾ cup shredded deli smoked ham\n\n\n3  eggs\n\n\n¾ cup shredded mozzarella cheese\n\n\n1 teaspoon onion powder\n\n\n1 teaspoon garlic powder\n\n\n  salt and ground black pepper to taste\n\n\n  olive oil for frying\n\n\n1  green onion, chopped\n\n\n½ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large potatoes, peeled and shredded\n\n\n¾ cup shredded deli smoked ham\n\n\n3  eggs\n\n\n¾ cup shredded mozzarella cheese\n\n\n1 teaspoon onion powder\n\n\n1 teaspoon garlic powder\n\n\n  salt and ground black pepper to taste\n\n\n  olive oil for frying\n\n\n1  green onion, chopped\n\n\n½ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine potatoes, ham, eggs, mozzarella cheese, onion powder, garlic powder, salt, and black pepper in a bowl."},{"recipe_directions":"Heat a large skillet over medium-low heat. Pour enough olive oil to cover bottom of pan."},{"recipe_directions":"Scoop up about 1/2 cup of potato mixture per pancake and form into a patty. Repeat, making 8 patties in all."},{"recipe_directions":"Place 4 pancakes at time in hot olive oil. Cook until browned, about 4 minutes on each side. Transfer to paper towel-lined plate."},{"recipe_directions":"Sprinkle with green onion and Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"365\nCalories\n\n\n15g \nFat\n\n\n35g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699653595-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cqyA1VyuamSybGH2MAqnw5JQ2zY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8795380-6d8d5272e1ab470588238d8ae541d654.jpg"
@@ -603,69 +924,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282521/family-latkes/</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Family Latkes</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 latkes"}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"5 medium potatoes, peeled\n\n\n2 tablespoons all-purpose flour\n\n\n2 tablespoons grated onion\n\n\n1 ½ teaspoons salt\n\n\n¼ teaspoon ground black pepper\n\n\n4 large eggs, beaten\n\n\n1 cup oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 medium potatoes, peeled\n\n\n2 tablespoons all-purpose flour\n\n\n2 tablespoons grated onion\n\n\n1 ½ teaspoons salt\n\n\n¼ teaspoon ground black pepper\n\n\n4 large eggs, beaten\n\n\n1 cup oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes in salted water and let sit for about 15 minutes."},{"recipe_directions":"Grate potatoes on a medium or fine setting. Press out liquid; this should produce about 4 cups grated potato."},{"recipe_directions":"Place grated potato in a bowl and stir in flour, onion, salt, and pepper. Fold in eggs."},{"recipe_directions":"Preheat the oven to 250 degrees F (120 degrees C). Line baking sheets with parchment paper."},{"recipe_directions":"Heat enough oil in a deep pan to reach 1/4 inch up the sides. Heat over medium-high heat until a drop of batter sizzles. Lower heat to medium."},{"recipe_directions":"Working in batches, drop batter into the hot oil in desired size and flatten into pancakes; brown on both sides, 5 to 7 minutes per side. Transfer to the prepared pans and keep warm in the preheated oven while you fry remaining batter."}]</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Holidays and Events Recipes"},{"recipe_tags":"Hanukkah"},{"recipe_tags":"Latkes"}]</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699653600-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WhOuofzOklt1tnVxIoWxxLVyAco=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/6800267-b10144cbc4c544f28250728b9fd8a08f.jpg"
@@ -678,69 +995,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274315/backyard-skillet-smashed-potatoes-and-onions/</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Backyard Skillet Smashed Potatoes and Onions</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 pounds new potatoes\n\n\n2 tablespoons water\n\n\n1  onion, minced\n\n\n2 tablespoons olive oil\n\n\n1 pinch seasoned salt, or to taste\n\n\n1 pinch paprika, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds new potatoes\n\n\n2 tablespoons water\n\n\n1  onion, minced\n\n\n2 tablespoons olive oil\n\n\n1 pinch seasoned salt, or to taste\n\n\n1 pinch paprika, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place new potatoes and water in a microwave-safe bowl. Cover and heat on high in a microwave until soft enough to smash, about 8 minutes."},{"recipe_directions":"Preheat an outdoor skillet for high heat and lightly oil the grate. Place a cast-iron skillet on the grill to preheat."},{"recipe_directions":"Drain water from the potato bowl and add onion and olive oil; mix well. Carefully spread potato mixture into the skillet and smash each potato using the back of a spatula."},{"recipe_directions":"Grill until onions are browned and potatoes are crispy, about 5 minutes per side. Season with seasoned salt and paprika."}]</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"258\nCalories\n\n\n7g \nFat\n\n\n45g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699653605-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uVl6rd9XwGpaw4BGsIO0kgd9Gq0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5131622-e7c8d19c3a9d42bd8bd58382fa6e228f.jpg"
@@ -753,69 +1066,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262704/bacon-potato-cakes-with-ham-steak-egg-and-sliced-avocado/</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Bacon Potato Cakes with Ham Steak, Egg, and Sliced Avocado</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 potato cakes"}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (20 ounce) package refrigerated hash brown potatoes\n\n\n8 slices Pure Farmland® All Natural Uncured Bacon, cooked, roughly chopped\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n2 tablespoons all-purpose flour\n\n\n2 cloves garlic, minced\n\n\n2 large eggs, beaten\n\n\n3  green onions, thinly sliced\n\n\n¼ teaspoon ground cayenne pepper\n\n\n  Kosher salt and freshly ground black pepper, to taste\n\n\n2 tablespoons olive oil\n\n\n4 slices Farmland® Ham Steak, cut in half\n\n\n4  eggs, sunny side up, or cooked to your choice\n\n\n1  avocado, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (20 ounce) package refrigerated hash brown potatoes\n\n\n8 slices Pure Farmland® All Natural Uncured Bacon, cooked, roughly chopped\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n2 tablespoons all-purpose flour\n\n\n2 cloves garlic, minced\n\n\n2 large eggs, beaten\n\n\n3  green onions, thinly sliced\n\n\n¼ teaspoon ground cayenne pepper\n\n\n  Kosher salt and freshly ground black pepper, to taste\n\n\n2 tablespoons olive oil\n\n\n4 slices Farmland® Ham Steak, cut in half\n\n\n4  eggs, sunny side up, or cooked to your choice\n\n\n1  avocado, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bacon Potato Cakes: In large bowl, combine potatoes, bacon, Parmesan cheese, flour, garlic, eggs, green onions, and cayenne pepper; season with salt and pepper."},{"recipe_directions":"Heat olive oil in large skillet over medium-high heat. Scoop tablespoons of batter for each pancake, flattening with spatula, and cook until underside is nicely golden brown, about 2 to 3 minutes. Flip and cook on other side, about 2 minutes longer."},{"recipe_directions":"To Serve: Place bacon potato cakes on plate and top with ham steak. Top with fried eggs, followed by sliced avocado fanned on top."}]</t>
         </is>
       </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"794\nCalories\n\n\n60g \nFat\n\n\n37g \nCarbs\n\n\n42g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699653610-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/djomIOdjvokKnRVvloDS-4sft6Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1071x0:1073x2):format(webp)/9262077-eb0f62914b7641709a4a533a94261257.jpg"
@@ -828,69 +1137,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284820/easy-air-fryer-latkes/</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Easy Air Fryer Latkes</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 pound russet potatoes, peeled and grated\n\n\n2 large eggs\n\n\n½ medium onion, sliced\n\n\n¼ cup seasoned bread crumbs\n\n\n  salt and ground black pepper to taste\n\n\n  nonstick cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound russet potatoes, peeled and grated\n\n\n2 large eggs\n\n\n½ medium onion, sliced\n\n\n¼ cup seasoned bread crumbs\n\n\n  salt and ground black pepper to taste\n\n\n  nonstick cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 375 degrees F (190 degrees C)."},{"recipe_directions":"Place potatoes on a clean kitchen towel and squeeze out any excess moisture. Transfer to a bowl and stir in eggs, onion, bread crumbs, salt, and pepper."},{"recipe_directions":"Spray the air fryer basket with nonstick spray. Drop 1/4 cupfuls potato mixture into the basket. Spray tops with nonstick spray."},{"recipe_directions":"Air fry until crispy and golden brown, 8 to 12 minutes."}]</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Holidays and Events Recipes"},{"recipe_tags":"Hanukkah"},{"recipe_tags":"Latkes"}]</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n3g \nFat\n\n\n26g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699653614-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -904,69 +1209,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282131/scallion-mashed-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Scallion Mashed Potato Pancakes</t>
         </is>
       </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n10 \n\n\nYield:\n10 pancakes"}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups leftover mashed potatoes\n\n\n½ cup all-purpose flour\n\n\n2 large eggs\n\n\n2 teaspoons sesame oil, divided\n\n\n  salt and ground white pepper to taste\n\n\n1 tablespoon vegetable oil\n\n\n4 large scallions, chopped\n\n\n¼ cup vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups leftover mashed potatoes\n\n\n½ cup all-purpose flour\n\n\n2 large eggs\n\n\n2 teaspoons sesame oil, divided\n\n\n  salt and ground white pepper to taste\n\n\n1 tablespoon vegetable oil\n\n\n4 large scallions, chopped\n\n\n¼ cup vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix mashed potatoes, flour, eggs, 1 teaspoon sesame oil, salt, and white pepper together in a medium mixing bowl. The mixture should be a little doughy, enough to form a ball in your palm."},{"recipe_directions":"Heat 1 tablespoon vegetable oil in a large frying pan over medium heat. Saute scallions in the hot oil until soft, about 5 minutes. Fold into the potato mixture until combined."},{"recipe_directions":"Heat enough vegetable oil in the frying pan to cover by 1/4 inch and add a drizzle of remaining sesame oil."},{"recipe_directions":"Form balls of potato mixture using a 1/4 cup measure and flatten into pancakes. Gently place into the hot oil in batches and cook until browned on both sides and somewhat firm, about 5 minutes. Transfer pancakes to a paper towel-lined plate to soak up excess oil. Repeat with remaining mixture, adding more vegetable oil and sesame oil before frying each batch. Transfer to a platter and serve hot."}]</t>
         </is>
       </c>
-      <c r="L12" s="1" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M12" s="1" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"144\nCalories\n\n\n9g \nFat\n\n\n13g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699653620-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sBx22g6yTbi-7O4rqlSY4kUTmuc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3687333-30ed86c16e4f40bb9cb54919786d8c67.jpg"
@@ -979,69 +1280,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246879/chorizo-latkes/</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Chorizo Latkes</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n42 mins\n\n\nServings:\n18 \n\n\nYield:\n18 to 24 latkes"}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3  russet potatoes, peeled\n\n\n2  eggs, lightly beaten\n\n\n  salt and ground black pepper to taste\n\n\n1 teaspoon vegetable oil\n\n\n1 (1 pound) package beef chorizo\n\n\n1  yellow onion, diced\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  russet potatoes, peeled\n\n\n2  eggs, lightly beaten\n\n\n  salt and ground black pepper to taste\n\n\n1 teaspoon vegetable oil\n\n\n1 (1 pound) package beef chorizo\n\n\n1  yellow onion, diced\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Shred potatoes; wring out excess water in a dish towel. Transfer to a large bowl and mix in eggs. Season with salt and pepper."},{"recipe_directions":"Heat 1 teaspoon oil in a large skillet over medium heat. Add chorizo; cook and stir until browned, 4 to 5 minutes. Drain, reserving 1 teaspoon grease in the skillet. Add onion; cook and stir until translucent, about 4 minutes. Fold into potatoes until well-combined."},{"recipe_directions":"Heat 1 tablespoon oil in another large skillet until almost smoking. Add heaping tablespoonfuls of the potato mixture; press down to flatten slightly. Cook until golden brown, about 2 minutes per side. Continue with remaining potato mixture. Drain on paper towels."}]</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"164\nCalories\n\n\n11g \nFat\n\n\n8g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699653625-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sAXiLO8mYQwTv5kf_76djpwvITE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4448511-4cd4037ad49945c6830ee482536cdfec.jpg"
@@ -1054,69 +1351,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256185/potato-leek-latkes/</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Potato Leek Latkes</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n10 latkes"}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2  russet potatoes, cut into small pieces\n\n\n1  leek, cut into small pieces\n\n\n3  eggs\n\n\n¼ cup flaxseed meal\n\n\n1 teaspoon salt\n\n\n½ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  russet potatoes, cut into small pieces\n\n\n1  leek, cut into small pieces\n\n\n3  eggs\n\n\n¼ cup flaxseed meal\n\n\n1 teaspoon salt\n\n\n½ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine potatoes and leek in a food processor; process until mashed. Add eggs, flaxseed meal, and salt; pulse until incorporated."},{"recipe_directions":"Spoon potato mixture onto the lined baking sheet. Flatten gently into 3-inch circles. Sprinkle Parmesan cheese on top."},{"recipe_directions":"Bake in the preheated oven until Parmesan cheese is melted and golden brown, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n8g \nFat\n\n\n20g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699653632-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gN9APPuDKU1xlfjbj-yMXiycHeY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/606765-3099e7e39d6640b1b976a116e133a953.jpg"
@@ -1129,69 +1422,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212382/cajun-potato-latkes/</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cajun Potato Latkes</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups peeled, shredded potatoes\n\n\n¼  onion, shredded\n\n\n⅓ cup chopped green onion\n\n\n2  eggs, beaten\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n1 ½ teaspoons Cajun seasoning, or to taste\n\n\n1 cup canola oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups peeled, shredded potatoes\n\n\n¼  onion, shredded\n\n\n⅓ cup chopped green onion\n\n\n2  eggs, beaten\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n1 ½ teaspoons Cajun seasoning, or to taste\n\n\n1 cup canola oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the potatoes in a cloth, and wring them to remove as much moisture as possible. Mix the potatoes, onion, green onion, eggs, flour, and Cajun seasoning together in a bowl until thoroughly combined."},{"recipe_directions":"Heat the oil in a large, heavy skillet over medium heat until it shimmers (oil should be about 1/3 inch deep). Drop about 2 tablespoons of the potato mixture per patty into the hot oil, and flatten the potatoes to make the patties 1/4 to 1/2-inch thick. Brown the patties in the hot oil until golden and crisp on the bottom, about 5 minutes, then flip and cook on the other side. Drain the latkes on paper towels, and serve hot."}]</t>
         </is>
       </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"113\nCalories\n\n\n5g \nFat\n\n\n13g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699653641-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hJOcepDCxKrKWFiI2Onq0sJJWQ8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/5246339-a286dbf461394535bcbd8841f53dc7ee.jpg"
@@ -1204,69 +1493,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/111190/boxty/</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Boxty</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n12 to 3 - inch cakes"}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ pound potatoes, unpeeled\n\n\n1 ½ cups buttermilk\n\n\n½ pound potatoes, peeled and grated\n\n\n1 ¾ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons butter, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound potatoes, unpeeled\n\n\n1 ½ cups buttermilk\n\n\n½ pound potatoes, peeled and grated\n\n\n1 ¾ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons butter, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C). Scrub the unpeeled potatoes and prick them several times with a fork; place onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until the potatoes are easily pierced with a fork, 50 minutes to 1 hour. Remove, cool, and peel. Mash the potatoes with the buttermilk. Stir in the grated raw potato, flour, baking soda, salt, and pepper."},{"recipe_directions":"Melt the butter in a large skillet or griddle over medium heat. Scoop the potato mixture into the skillet to make 3 inch cakes. Fry until golden and crisp, turning once, about 5 minutes per side."}]</t>
         </is>
       </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M16" s="1" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"249\nCalories\n\n\n5g \nFat\n\n\n44g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699653651-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gy1YtQK21Eew9D5kfmF57RlJwNE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(500x0:502x2):format(webp)/9213113-b713ff7c249848c1bed8559d206f6003.jpg"
@@ -1277,69 +1562,65 @@
 Reibekuchen (German Potato Pancakes)</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284424/reibekuchen-german-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Reibekuchen (German Potato Pancakes)</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n10 \n\n\nYield:\n10 potato pancakes"}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"20 medium potatoes\n\n\n1 large onion, finely chopped\n\n\n1 large egg\n\n\n5 tablespoons rolled oats, or more as needed\n\n\n4 tablespoons oil, or more as needed\n\n\n  salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '20 medium potatoes\n\n\n1 large onion, finely chopped\n\n\n1 large egg\n\n\n5 tablespoons rolled oats, or more as needed\n\n\n4 tablespoons oil, or more as needed\n\n\n  salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel potatoes and finely grate. Set grated potatoes onto a clean kitchen towel, twist to close, and press most of the liquid out of the potatoes, leaving only a little moisture."},{"recipe_directions":"Mix pressed potatoes, onion, egg, and oats in a large bowl and season with salt and pepper."},{"recipe_directions":"Heat oil in a large skillet. Shape small potato pancakes with 2 spoons out of the potato mixture and set into the hot oil. Bake in batches until browned, 3 to 5 minutes per side, adding more oil as necessary. Drain on paper towels before serving."}]</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"399\nCalories\n\n\n7g \nFat\n\n\n78g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699653662-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yycilLs9Nwlrsn0jXQLkGOxi0Ag=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/792228-32420ef69ee54fe5902f8f224940e4ef.jpg"
@@ -1352,69 +1633,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212383/kay-dees-recipe-for-potato-latkes/</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Kay Dee's Recipe for Potato Latkes</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n12 latkes"}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 large potatoes, peeled and shredded\n\n\n1 small onion, shredded\n\n\n3  eggs\n\n\n1 teaspoon salt\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n½ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large potatoes, peeled and shredded\n\n\n1 small onion, shredded\n\n\n3  eggs\n\n\n1 teaspoon salt\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n½ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the potatoes and onion into a bowl, and stir in eggs, salt, and flour as needed to make the mixture hold together. With wet hands, scoop up about 1/3 cup of the mixture per patty, and form into flat round or oval shapes."},{"recipe_directions":"Heat the vegetable oil in a large skillet over medium heat until it shimmers, and gently place the patties into the hot oil. Fry until the bottoms are golden brown and crisp, 5 to 8 minutes, then flip with a spatula and fry the other side until golden."},{"recipe_directions":"Line a colander or strainer with 2 paper towels, and drain the cooked latkes in the colander. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M18" s="1" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n10g \nFat\n\n\n18g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699653668-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wBdKTUUFPfocwZKTjMKK3L1P37U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-237-e6011752787c4c2a8f3f14a974c0dbfd.jpg"
@@ -1428,69 +1705,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284273/sausage-stuffed-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Sausage-Stuffed Potato Pancakes</t>
         </is>
       </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 potato pancakes"}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6 ounces Italian sausage links, casings removed\n\n\n1 ½ pounds russet potatoes, peeled\n\n\n1 teaspoon kosher salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n2 tablespoons all-purpose flour\n\n\n1 large egg, beaten\n\n\n2 ½ tablespoons vegetable oil\n\n\n2 tablespoons diced roasted red peppers\n\n\n3 tablespoons sour cream, or to taste\n\n\n1 tablespoon chopped fresh chives, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 ounces Italian sausage links, casings removed\n\n\n1 ½ pounds russet potatoes, peeled\n\n\n1 teaspoon kosher salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n2 tablespoons all-purpose flour\n\n\n1 large egg, beaten\n\n\n2 ½ tablespoons vegetable oil\n\n\n2 tablespoons diced roasted red peppers\n\n\n3 tablespoons sour cream, or to taste\n\n\n1 tablespoon chopped fresh chives, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Divide sausage into 6 equal pieces, and press between plastic wrap to flatten into discs about 2 1/2 inches round and about 1/8 inch thick. Keep in the refrigerator until needed."},{"recipe_directions":"Grate potatoes and transfer into a large bowl of cold water. Stir the grated potatoes with your hand for a few seconds, and then drain the potatoes in a strainer. Using your hands and/or a towel, squeeze out as much water as possible."},{"recipe_directions":"Transfer the potatoes to a mixing bowl. Add salt, black pepper, cayenne, flour, and egg; mix thoroughly."},{"recipe_directions":"Heat oil in large nonstick pan over medium-high heat. For each pancake, place down about 3 tablespoons of the potato mixture. Reduce heat to medium; top each pancake with a sausage patty, pressing it down lightly into the surface. Top each sausage patty with another heaping tablespoon of potato mixture and spread over the top until the sausage is covered. Flatten down with a spoon or spatula."},{"recipe_directions":"Cook the first side until very well browned, about 5 minutes. Flip and cook the other side until browned, the sausage is no longer pink, and potatoes are tender, about 5 minutes more. Serve with diced roasted red peppers, sour cream, and fresh chives."}]</t>
         </is>
       </c>
-      <c r="L19" s="1" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M19" s="1" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"242\nCalories\n\n\n13g \nFat\n\n\n23g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699653675-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hnWHd7xgFJz8kRBY99dpRjpk8nQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1072x0:1074x2):format(webp)/8796861-420ce0892fef4d85bd957398bbe59875.jpg"
@@ -1503,69 +1776,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85431/annes-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Anne's Potato Pancakes</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"8 medium red potatoes, with peel, shredded\n\n\n1 large sweet onion, minced\n\n\n3  eggs, lightly beaten\n\n\n3 tablespoons all-purpose flour\n\n\n½ teaspoon baking powder\n\n\n1 tablespoon dried rosemary\n\n\n1 tablespoon salt\n\n\n2 teaspoons ground black pepper\n\n\n1 ½ teaspoons lime juice\n\n\n2 tablespoons vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 medium red potatoes, with peel, shredded\n\n\n1 large sweet onion, minced\n\n\n3  eggs, lightly beaten\n\n\n3 tablespoons all-purpose flour\n\n\n½ teaspoon baking powder\n\n\n1 tablespoon dried rosemary\n\n\n1 tablespoon salt\n\n\n2 teaspoons ground black pepper\n\n\n1 ½ teaspoons lime juice\n\n\n2 tablespoons vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, mix the red potatoes, onion, eggs, flour, baking powder, rosemary, salt, pepper, and lime juice."},{"recipe_directions":"Heat the oil in a skillet over medium-high heat. Scoop about 2/3 cup at a time of the potato mixture into the skillet, and press down with a spatula into a pancake shape. Cook 3 to 4 minutes on each side, until crisp and golden brown. Drain on paper towels. Repeat with remaining potato mixture."}]</t>
         </is>
       </c>
-      <c r="L20" s="1" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M20" s="1" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"182\nCalories\n\n\n5g \nFat\n\n\n31g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699653681-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LOuzKrOG0uE4Vpd5E_qJiYDckh4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/700951-0d385b4773644c799fd1430f6da39513.jpg"
@@ -1578,69 +1847,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16120/vegetable-and-feta-latkes/</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Vegetable and Feta Latkes</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n6 \n\n\nYield:\n8 to 12 latkes"}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 ½ cups grated zucchini\n\n\n1 cup peeled and shredded potatoes\n\n\n1 cup shredded carrots\n\n\n½ teaspoon salt\n\n\n3  eggs, lightly beaten\n\n\n  salt to taste\n\n\n  freshly ground black pepper\n\n\n¾ cup matzo meal\n\n\n½ cup chopped fresh parsley\n\n\n½ cup crumbled feta cheese\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups grated zucchini\n\n\n1 cup peeled and shredded potatoes\n\n\n1 cup shredded carrots\n\n\n½ teaspoon salt\n\n\n3  eggs, lightly beaten\n\n\n  salt to taste\n\n\n  freshly ground black pepper\n\n\n¾ cup matzo meal\n\n\n½ cup chopped fresh parsley\n\n\n½ cup crumbled feta cheese\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the zucchini, potato and carrots in a colander, place paper towels or a cheesecloth over the top and squeeze out as much moisture as possible. Sprinkle salt over the vegetables and let them drain for 15 minutes. Squeeze vegetable again in paper towels."},{"recipe_directions":"In a large mixing bowl combine eggs, vegetables, salt and pepper. Mix well. Stir in matzo meal or flour, parsley and feta."},{"recipe_directions":"Heat vegetable oil in a large frying pan. Place vegetable mixture, formed into pancake sized cakes in hot oil and fry until golden brown on both sides. (Cook two to three minutes per side). Add more oil as needed to keep cakes frying up well. Drain fried latkes on paper towels."}]</t>
         </is>
       </c>
-      <c r="L21" s="1" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M21" s="1" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n15g \nFat\n\n\n17g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699653686-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dYo2WbAkstoGXbf1zN_ftawR51U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1032034-delicious-stuffed-potato-pancakes-Mia-Poulsen-4x3-1-e2a7f9dbea1241deb35b7e69dbd1df43.jpg"
@@ -1654,69 +1919,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/206817/delicious-stuffed-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Delicious Stuffed Potato Pancakes</t>
         </is>
       </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"8  potatoes, peeled and shredded\n\n\n¼ cup all-purpose flour\n\n\n½ teaspoon baking powder\n\n\n3  eggs\n\n\n  salt and black pepper to taste"},{"ingredients":"½ pound ground beef\n\n\n½  onion, grated\n\n\n1 pinch garlic salt\n\n\n1  egg\n\n\n¼ cup bread crumbs\n\n\n2 teaspoons vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  potatoes, peeled and shredded\n\n\n¼ cup all-purpose flour\n\n\n½ teaspoon baking powder\n\n\n3  eggs\n\n\n  salt and black pepper to taste'}, {'recipe_ingredients': '½ pound ground beef\n\n\n½  onion, grated\n\n\n1 pinch garlic salt\n\n\n1  egg\n\n\n¼ cup bread crumbs\n\n\n2 teaspoons vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together potatoes, flour, baking powder, 3 eggs, salt, and pepper in a bowl. In another bowl, mix ground beef, onion, garlic salt, 1 egg, and bread crumbs until well-combined."},{"recipe_directions":"Heat oil in a skillet over medium-low heat; drop a rounded tablespoon of potato mixture into the hot skillet. Spread and flatten pancake out a little, and place about 2 teaspoons of beef mixture on top, spreading filling out almost to the edges of pancake. Drop another rounded tablespoon of potato mixture on top, and spread it out to completely cover beef. Fry until the bottom of pancake is golden brown, about 5 minutes; flip and fry other side until golden, 1 to 2 more minutes. Transfer pancake to a paper towel-lined plate. Repeat with remaining potato mixture and beef filling."}]</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M22" s="1" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"389\nCalories\n\n\n10g \nFat\n\n\n58g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699653696-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HVrmf9_ilQaKF2Vx4EYRhli2cWQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/8570758-89d5f5b86bab49e6814967ee27a9d0cd.jpg"
@@ -1729,69 +1990,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21304/potato-pancakes/</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Dad's Potato Pancakes</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"5 pounds potatoes, peeled\n\n\n1  onion\n\n\n3  eggs, beaten\n\n\n2 ½ cups dry pancake mix\n\n\n2 teaspoons salt\n\n\n1 teaspoon ground black pepper\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 pounds potatoes, peeled\n\n\n1  onion\n\n\n3  eggs, beaten\n\n\n2 ½ cups dry pancake mix\n\n\n2 teaspoons salt\n\n\n1 teaspoon ground black pepper\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a food processor grate potatoes and onion. In a large bowl combine potatoes, onions, eggs, pancake mix, salt and pepper."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Spoon potatoes into skillet and cook as you would pancakes, for 3 to 4 minutes on each side."}]</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M23" s="1" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"197\nCalories\n\n\n2g \nFat\n\n\n39g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699653702-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nZ3mHssn0oszqo-KC2-ivrbqwYs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/810716-502b2787138547968a84bacf9196fdae.jpg"
@@ -1804,69 +2061,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220613/bacon-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Bacon Potato Pancakes</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 slices bacon\n\n\n4  Idaho potatoes, peeled and shredded\n\n\n¼ cup all-purpose flour\n\n\n2  eggs\n\n\n4  garlic cloves, minced\n\n\n1 tablespoon chopped fresh thyme\n\n\n  salt and ground black pepper to taste\n\n\n  vegetable oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 slices bacon\n\n\n4  Idaho potatoes, peeled and shredded\n\n\n¼ cup all-purpose flour\n\n\n2  eggs\n\n\n4  garlic cloves, minced\n\n\n1 tablespoon chopped fresh thyme\n\n\n  salt and ground black pepper to taste\n\n\n  vegetable oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook bacon in a skillet over medium heat until crisp, 3 to 5 minutes. Transfer to a paper towel-lined plate to drain; let cool and crumble. Reserve bacon drippings in skillet."},{"recipe_directions":"Combine crumbled bacon, potatoes, flour, eggs, garlic, thyme, salt, and black pepper in a large bowl."},{"recipe_directions":"Pour vegetable oil about 1/4-inch deep into skillet with bacon drippings and place over medium heat; heat until the oil and bacon drippings shimmer."},{"recipe_directions":"Gently drop potato mixture by heaping tablespoon into hot oil and flatten potatoes into small patties about 3 inches in diameter. Cook until browned, about 3 minutes on each side."}]</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M24" s="1" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n12g \nFat\n\n\n30g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699653708-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gidV_SgHfBdsc7mMhDH8GsnrB-I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/214268-32b760f923434ba888bd161ee1910f49.jpg"
@@ -1879,69 +2132,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/149259/roesti/</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Roesti</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 ¼ pounds potatoes, scrubbed\n\n\n3 tablespoons butter\n\n\n1 teaspoon salt\n\n\n2 tablespoons milk"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¼ pounds potatoes, scrubbed\n\n\n3 tablespoons butter\n\n\n1 teaspoon salt\n\n\n2 tablespoons milk'}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the potatoes in a large pot. Cover the potatoes with water. Bring the water to a boil over medium-high heat. Cook the potatoes until tender enough to pierce with a fork, about 15 minutes; drain and refrigerate potatoes overnight."},{"recipe_directions":"Peel and grate the potatoes into a large bowl."},{"recipe_directions":"Melt the butter in a skillet over medium heat; add the grated potatoes; season with salt. Press the potatoes into a round loaf using a spatula. Sprinkle the milk over them. Cover the skillet with a lid. When you hear the potatoes begin to sizzle in about 5 to 10 minutes, reduce the heat to low. Cook until a brown crust has formed on the bottom, about 30 minutes. Cover the skillet with a large plate and flip the roesti onto the plate to serve."}]</t>
         </is>
       </c>
-      <c r="L25" s="1" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M25" s="1" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"186\nCalories\n\n\n6g \nFat\n\n\n31g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699653716-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YuJLHZS1Tuk1jCiC7Lm2WvHKQ7E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/895069-a84f62949426462ab3f12c766d0f6410.jpg"
@@ -1954,69 +2203,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229264/loaded-mashed-potato-cakes/</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Loaded Mashed Potato Cakes</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 slices bacon\n\n\n2 tablespoons butter\n\n\n1 small onion, chopped\n\n\n1 stalk celery, chopped\n\n\n¼ teaspoon minced garlic\n\n\n1 ¼ cups mashed potatoes\n\n\n1 cup shredded American cheese\n\n\n¾ cup all-purpose flour\n\n\n1  egg, slightly beaten\n\n\n¼ teaspoon prepared yellow mustard\n\n\n⅛ teaspoon ground black pepper\n\n\n1 dash hot sauce\n\n\n1 tablespoon vegetable oil\n\n\n2 tablespoons sour cream"}]</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 slices bacon\n\n\n2 tablespoons butter\n\n\n1 small onion, chopped\n\n\n1 stalk celery, chopped\n\n\n¼ teaspoon minced garlic\n\n\n1 ¼ cups mashed potatoes\n\n\n1 cup shredded American cheese\n\n\n¾ cup all-purpose flour\n\n\n1  egg, slightly beaten\n\n\n¼ teaspoon prepared yellow mustard\n\n\n⅛ teaspoon ground black pepper\n\n\n1 dash hot sauce\n\n\n1 tablespoon vegetable oil\n\n\n2 tablespoons sour cream'}]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat, turning occasionally, until evenly browned, about 10 minutes. Drain the bacon slices on paper towels, reserving bacon grease in skillet; crumble bacon."},{"recipe_directions":"Melt butter in bacon grease over medium heat; cook and stir onion, celery, and garlic until tender and lightly browned, about 15 minutes. Transfer vegetables and bacon to large bowl; stir in mashed potatoes, American cheese, flour, egg, mustard, black pepper, and hot sauce."},{"recipe_directions":"Heat vegetable oil in a clean skillet over medium heat. Drop spoonfuls of mashed potato mixture, flattening slightly, and fry patties until golden brown on both sides, 5 to 7 minutes. Serve with sour cream."}]</t>
         </is>
       </c>
-      <c r="L26" s="1" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M26" s="1" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"203\nCalories\n\n\n12g \nFat\n\n\n16g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699653721-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SbCoKo6CkXF9Mx_rvZ2WSq2zFWg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1055174-1528bb553ef049e4874d6f764b90811c.jpg"
@@ -2029,69 +2274,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228234/crispy-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Crispy Potato Pancakes</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n12 pancakes"}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 pounds potatoes, peeled and coarsely shredded\n\n\n2  onions, minced\n\n\n3  eggs, beaten\n\n\n¼ cup all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon lemon juice\n\n\n1 pinch ground nutmeg, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds potatoes, peeled and coarsely shredded\n\n\n2  onions, minced\n\n\n3  eggs, beaten\n\n\n¼ cup all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon lemon juice\n\n\n1 pinch ground nutmeg, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix potatoes, onions, eggs, flour, baking powder, and lemon juice in a large bowl; season with nutmeg, salt, and black pepper. Shape potato mixture into 12 evenly sized patties."},{"recipe_directions":"Heat vegetable oil in a large skillet over medium heat. Pan-fry potato patties in batches until tender and browned on both sides, 7 to 10 minutes. Transfer browned patties to a paper towel-lined baking sheet. Repeat with remaining patties."}]</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M27" s="1" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n12g \nFat\n\n\n35g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699653727-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BdMBNHXAUfupE4B6EL7lubu9DjI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(979x0:981x2):format(webp)/6079895-7b64b56ae4f54fda9e7390e49a95f07c.jpg"
@@ -2104,69 +2345,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238261/chef-johns-classic-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Chef John's Classic Potato Pancakes</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 ¼ pounds russet potatoes, peeled and grated\n\n\n½  yellow onion, grated\n\n\n2  large eggs\n\n\n3 tablespoons all-purpose flour\n\n\n1 teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n1 cup vegetable oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¼ pounds russet potatoes, peeled and grated\n\n\n½  yellow onion, grated\n\n\n2  large eggs\n\n\n3 tablespoons all-purpose flour\n\n\n1 teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n1 cup vegetable oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes and onion into a large bowl and pour enough cold water in the bowl to cover by several inches. Let rest until potatoes and onion are completely soaked, 20 to 30 minutes. Pour potato mixture into a colander, rinse, drain, and squeeze repeatedly to remove all moisture."},{"recipe_directions":"Whisk eggs, flour, salt, black pepper, and cayenne pepper together in a bowl until smooth."},{"recipe_directions":"Mix potato mixture and egg mixture together in a large bowl with a spatula."},{"recipe_directions":"Heat 1/4-inch oil in a heavy skillet over medium-high heat. When oil shimmers, drop large spoonfuls of potato batter into hot oil and flatten with a spatula to about 1/2-inch thick. Cook until the edges of pancakes are golden brown and crispy, 3 to 5 minutes. Reduce heat to medium, flip pancakes, and cook until golden brown and crispy on the other side, about 5 minutes more. Repeat cooking process with remaining batter."}]</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M28" s="1" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"315\nCalories\n\n\n8g \nFat\n\n\n52g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699653734-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CA-EcOVCpJbKyLqV1i-wD3pc_w0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/990354-ce1b7a82382a48a08ed68bd000e03400.jpg"
@@ -2179,69 +2416,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230706/potato-latkes-from-simply-potatoes/</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Potato Latkes from Simply Potatoes</t>
         </is>
       </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (20 ounce) package Simply Potatoes shredded hash browns, thawed\n\n\n½ cup Better'n Eggs egg substitute\n\n\n⅓ cup whole wheat flour\n\n\n¼ cup finely chopped green onion\n\n\n¼ teaspoon ground black pepper\n\n\n1 teaspoon salt\n\n\n¼ teaspoon baking powder\n\n\n1 tablespoon oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (20 ounce) package Simply Potatoes shredded hash browns, thawed\n\n\n½ cup Better'n Eggs egg substitute\n\n\n⅓ cup whole wheat flour\n\n\n¼ cup finely chopped green onion\n\n\n¼ teaspoon ground black pepper\n\n\n1 teaspoon salt\n\n\n¼ teaspoon baking powder\n\n\n1 tablespoon oil, or more as needed"}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, stir together hash browns, egg substitute, flour, green onion, pepper, salt, and baking powder."},{"recipe_directions":"Heat 1 tablespoon oil in a 12-inch nonstick skillet over medium heat."},{"recipe_directions":"Cook four latkes at a time. For each latke, spread 1/4 cup potato mixture into a 3 1/2-inch circle in the hot skillet. Cook for 4 to 5 minutes, turning once. Repeat with remaining potato mixture, adding more oil to the skillet as needed. Season with salt and pepper if desired."}]</t>
         </is>
       </c>
-      <c r="L29" s="1" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="M29" s="1" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n0g \nFat\n\n\n24g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699653740-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qKsi41L5F2IcYm586E0scw-39lY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/8749448-3257c41b33e44c4692e11a1f741f0ed9.jpg"
@@ -2254,69 +2487,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/72190/corned-beef-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Corned Beef Potato Pancakes</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ (12 ounce) can corned beef, broken into very small chunks\n\n\n3 medium potatoes, shredded\n\n\n2  green onions, chopped\n\n\n1 large egg\n\n\n  salt and pepper to taste\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ (12 ounce) can corned beef, broken into very small chunks\n\n\n3 medium potatoes, shredded\n\n\n2  green onions, chopped\n\n\n1 large egg\n\n\n  salt and pepper to taste\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place corned beef into a large bowl with potatoes, green onions, and egg; season with salt and pepper. Form mixture into golf ball-sized balls."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Place potato balls, a few at a time, into the hot skillet. Flatten balls with a spatula and fry until crisp and golden brown, about 7 minutes per side. Remove to a paper towel-lined plate. Repeat to cook remaining pancakes."}]</t>
         </is>
       </c>
-      <c r="L30" s="1" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M30" s="1" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n9g \nFat\n\n\n29g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699653745-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bMvj3hdv5w2qhrEPbXSGM3ddVkE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2182633-5aeeb3dc2ae14ad081dcbe0bdb3c58c2.jpg"
@@ -2329,69 +2558,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212824/bramboracky-czech-savory-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Bramboracky (Czech Savory Potato Pancakes)</t>
         </is>
       </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n3 \n\n\nYield:\n6 large pancakes"}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 large potatoes\n\n\n3 cloves garlic, crushed\n\n\n  salt and black pepper to taste\n\n\n1 pinch dried marjoram (Optional)\n\n\n2 teaspoons caraway seeds (Optional)\n\n\n2  eggs\n\n\n1 tablespoon milk\n\n\n3 tablespoons all-purpose flour\n\n\n  oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large potatoes\n\n\n3 cloves garlic, crushed\n\n\n  salt and black pepper to taste\n\n\n1 pinch dried marjoram (Optional)\n\n\n2 teaspoons caraway seeds (Optional)\n\n\n2  eggs\n\n\n1 tablespoon milk\n\n\n3 tablespoons all-purpose flour\n\n\n  oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel and coarsely grate the potatoes, squeezing out as much liquid as you can. Transfer the shredded potatoes to a mixing bowl. Stir in the crushed garlic, salt, pepper, marjoram, and caraway seeds."},{"recipe_directions":"Beat the eggs with the milk. Add the egg mixture to the potatoes and stir well to combine. Gradually mix in the flour to form a thick but still pourable batter."},{"recipe_directions":"Heat the oil in a skillet over medium-high heat; the oil should be about 1/4-inch deep. Spoon about 1/4 cup of batter into the hot oil, flattening it slightly. Fry the pancake until golden brown, about 3 minutes on each side. Drain on paper towels. Taste the first pancake and adjust the seasoning if necessary; repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="L31" s="1" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M31" s="1" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"527\nCalories\n\n\n11g \nFat\n\n\n94g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699653752-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8-oUfTZ1BnQ_VZ2CZu2WbLV3zG0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6052746-8404e68069da409994855c2abac5f68c.jpg"
@@ -2404,69 +2629,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212816/foolproof-potato-latkes/</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Foolproof Potato Latkes</t>
         </is>
       </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n10 latkes"}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4  potatoes, peeled and cubed\n\n\n1  onion, chopped\n\n\n2  eggs\n\n\n2 teaspoons salt\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n1 teaspoon baking powder\n\n\n¼ cup canola oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  potatoes, peeled and cubed\n\n\n1  onion, chopped\n\n\n2  eggs\n\n\n2 teaspoons salt\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n1 teaspoon baking powder\n\n\n¼ cup canola oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 1/4 of the potatoes, onion, eggs, salt, flour, and baking powder in the bowl of a food processor; pulse several times until the vegetables are finely chopped. Add remaining potatoes and pulse again until all potatoes are finely chopped and mixture is thoroughly combined."},{"recipe_directions":"Heat canola oil in a skillet over medium heat. Scoop up about 1/3 cup of potato mixture at a time and place in skillet. Fry latkes until brown and crisp on the bottom, 2 to 3 minutes. Flip and cook other sides until brown, 2 to 3 minutes longer."},{"recipe_directions":"Repeat with remaining potato mixture, replenishing oil as needed. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L32" s="1" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M32" s="1" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"289\nCalories\n\n\n13g \nFat\n\n\n37g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699653757-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BTd7PDBfIfasfd1rxWF16DQmRo8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1119456-22f5008b2a384fc8bd15360f0f1a671d.jpg"
@@ -2479,69 +2700,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236019/baked-potato-latkes/</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Baked Potato Latkes</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n5 \n\n\nYield:\n5 latkes"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 cups peeled and mashed baked potatoes\n\n\n1 cup chopped white onion\n\n\n1 tablespoon minced garlic\n\n\n1 ½ teaspoons salt\n\n\n1 teaspoon freshly ground multi-colored peppercorns\n\n\n5 tablespoons all-purpose flour\n\n\n2  eggs, whisked\n\n\n2 cups extra-virgin olive oil, or as need for frying"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups peeled and mashed baked potatoes\n\n\n1 cup chopped white onion\n\n\n1 tablespoon minced garlic\n\n\n1 ½ teaspoons salt\n\n\n1 teaspoon freshly ground multi-colored peppercorns\n\n\n5 tablespoons all-purpose flour\n\n\n2  eggs, whisked\n\n\n2 cups extra-virgin olive oil, or as need for frying'}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes, onion, garlic, salt, ground peppercorns, flour, and eggs into a bowl. Fold the mixture together with a rubber spatula, breaking up any large potato chunks, until ingredients are evenly mixed."},{"recipe_directions":"Heat oil in a deep-fryer or large skillet to 375 degrees F (190 degrees C)."},{"recipe_directions":"Form latke dough into 3-inch diameter balls and flatten into 1-inch thick rounds."},{"recipe_directions":"Working in batches, place latkes in hot oil and cook until edges are golden brown, 3 to 5 minutes. Flip latkes using a slotted spoon and cook until crisp, 2 to 3 minutes more. Transfer to a paper towel-lined plate to cool."}]</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"219\nCalories\n\n\n11g \nFat\n\n\n26g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699653763-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HRpgq-bna4dARp-Eec6csoOvWqQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1423828-moms-potato-latkes-Holiday-Baker-1x1-1-b1c132698dfa4d3b8c299f8e611b3906.jpg"
@@ -2555,69 +2772,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235052/moms-potato-latkes/</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Mom's Potato Latkes</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 cups shredded potato\n\n\n¼ cup grated onion\n\n\n2 large eggs, beaten\n\n\n6  saltine crackers, or as needed, crushed\n\n\n½ teaspoon salt, or more to taste\n\n\n¼ teaspoon ground black pepper\n\n\n½ cup vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups shredded potato\n\n\n¼ cup grated onion\n\n\n2 large eggs, beaten\n\n\n6  saltine crackers, or as needed, crushed\n\n\n½ teaspoon salt, or more to taste\n\n\n¼ teaspoon ground black pepper\n\n\n½ cup vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix potato, onion, eggs, crushed crackers, salt, and pepper together in a large bowl."},{"recipe_directions":"Heat 1/4 inch oil in a heavy skillet over medium-high heat."},{"recipe_directions":"Drop spoonfuls of the potato mixture, first pressing potato mixture against the side of the bowl to remove excess liquid, into the hot oil; slightly flatten the latkes into the oil with the back of your spoon so they are an even thickness."},{"recipe_directions":"Cook in batches in the hot oil until browned and crisp, 3 to 5 minutes per side. Drain latkes on a paper towel-line plate."}]</t>
         </is>
       </c>
-      <c r="L34" s="1" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M34" s="1" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"371\nCalories\n\n\n30g \nFat\n\n\n22g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699653768-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Imy7zovtZGnOU3rDijVXrOWLV0c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(498x0:500x2):format(webp)/8886101-9b5e2be59720407daa6d90f02f78c5a3.jpg"
@@ -2630,69 +2843,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21487/easy-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Easy Potato Pancakes</t>
         </is>
       </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n10 pancakes"}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"5 medium potatoes, peeled and shredded\n\n\n1 medium onion, finely chopped\n\n\n2 large eggs, beaten\n\n\n3 tablespoons all-purpose flour\n\n\n  salt and pepper to taste\n\n\n3 tablespoons vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 medium potatoes, peeled and shredded\n\n\n1 medium onion, finely chopped\n\n\n2 large eggs, beaten\n\n\n3 tablespoons all-purpose flour\n\n\n  salt and pepper to taste\n\n\n3 tablespoons vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine potatoes, onion, eggs, flour, salt, and pepper in a large bowl; stir until well combined."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Working in batches, drop large spoonfuls of potato batter into the hot skillet. Flatten batter lightly with a spatula and cook until golden brown, about 4 minutes per side. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="L35" s="1" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M35" s="1" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"291\nCalories\n\n\n10g \nFat\n\n\n43g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699653774-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2F3wR3essIIdq0ngLtE7lNQ4ZjQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/880580-f15dd82d03d141c0b2fa73b9968dd7a9.jpg"
@@ -2705,69 +2914,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220614/cheesy-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Cheesy Potato Pancakes</t>
         </is>
       </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4  russet potatoes, peeled and grated\n\n\n2  eggs\n\n\n½ cup milk\n\n\n1 cup all-purpose flour\n\n\n½ cup grated Parmesan cheese\n\n\n½ cup shredded Cheddar cheese\n\n\n¼ cup real bacon bits (Optional)\n\n\n1 teaspoon onion salt\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup corn oil\n\n\n2 tablespoons butter"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  russet potatoes, peeled and grated\n\n\n2  eggs\n\n\n½ cup milk\n\n\n1 cup all-purpose flour\n\n\n½ cup grated Parmesan cheese\n\n\n½ cup shredded Cheddar cheese\n\n\n¼ cup real bacon bits (Optional)\n\n\n1 teaspoon onion salt\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup corn oil\n\n\n2 tablespoons butter'}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together potatoes, eggs, and milk in a large bowl."},{"recipe_directions":"Stir flour, Parmesan cheese, Cheddar cheese, bacon bits, onion salt, baking powder, salt, and black pepper into potato mixture using a fork."},{"recipe_directions":"Heat corn oil and butter in a large skillet over medium heat."},{"recipe_directions":"Spoon about 2 tablespoons potato mixture into per patty into skillet. Cook patties until golden brown, about 4 minutes per side."},{"recipe_directions":"Drain cooked pancakes on paper towel-lined plate."}]</t>
         </is>
       </c>
-      <c r="L36" s="1" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M36" s="1" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"427\nCalories\n\n\n22g \nFat\n\n\n43g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699653779-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BIPOhohf9sIuzTXw5VmCWUXMNh4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2263548-panko-crusted-mashed-potato-cakes-naples34102-4x3-1-0dad8a30e3dd4b18ac996d4cda1e8b44.jpg"
@@ -2781,69 +2986,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216977/panko-crusted-mashed-potato-cakes/</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Panko Crusted Mashed Potato Cakes</t>
         </is>
       </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n8 \n\n\nYield:\n8 pancakes"}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups chilled mashed potatoes\n\n\n2  eggs, slightly beaten, (separate bowls)\n\n\n2 tablespoons chopped onion\n\n\n½ tablespoon black pepper\n\n\n½ cup flour for dredging\n\n\n1 cup Kikkoman Panko Bread Crumbs\n\n\n3 tablespoons vegetable oil for pan frying"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups chilled mashed potatoes\n\n\n2  eggs, slightly beaten, (separate bowls)\n\n\n2 tablespoons chopped onion\n\n\n½ tablespoon black pepper\n\n\n½ cup flour for dredging\n\n\n1 cup Kikkoman Panko Bread Crumbs\n\n\n3 tablespoons vegetable oil for pan frying'}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, combine potatoes, one egg, onion and black pepper. Divide potato mixture into 8 equal portions. Use your hands to form 1/2 inch thick patties. Dredge patties in flour, then in egg and coat with Panko Bread Crumbs. Meanwhile heat vegetable oil in a large skillet over medium high heat. Add potato patties to the hot oil. Cook until well browned, turn with a spatula and brown on the other side."}]</t>
         </is>
       </c>
-      <c r="L37" s="1" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Dinner"}]</t>
         </is>
       </c>
-      <c r="M37" s="1" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"164\nCalories\n\n\n7g \nFat\n\n\n22g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699653785-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cnFfN4qTGJAmasOOlJaweNQvi7A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1367x0:1369x2):format(webp)/5181101-7252ad0385c54700b4ab3665bf2293ee.jpg"
@@ -2856,69 +3057,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262978/leftover-mashed-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Leftover Mashed Potato Pancakes</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n13 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups mashed potatoes\n\n\n1  egg\n\n\n1 teaspoon ground black pepper\n\n\n¼ cup dry bread crumbs, or as needed\n\n\n1 tablespoon oil\n\n\n1 tablespoon butter"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mashed potatoes\n\n\n1  egg\n\n\n1 teaspoon ground black pepper\n\n\n¼ cup dry bread crumbs, or as needed\n\n\n1 tablespoon oil\n\n\n1 tablespoon butter'}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine mashed potatoes, egg, and pepper in a bowl and mix well together."},{"recipe_directions":"Pour bread crumbs into a small bowl. Shape potato mixture into 3-inch patties with wet hands and dip in bread crumbs so they are evenly coated."},{"recipe_directions":"Heat oil and butter in a nonstick skillet over medium heat and cook potato cakes on both sides until they are heated through and browned, about 4 minutes per side."}]</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M38" s="1" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"373\nCalories\n\n\n17g \nFat\n\n\n47g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699653792-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-040rhSEaOL59Kix5lQf3Ag1t3o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Air-Fryer-Latkes-1x1-1-2000-0912a4747e304808a40d1cbb99697641.jpg"
@@ -2932,69 +3129,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277453/air-fryer-latkes/</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Air Fryer Latkes</t>
         </is>
       </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n10 latkes"}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (16 ounce) package frozen shredded hash brown potatoes, thawed\n\n\n½ cup shredded onion\n\n\n1  egg\n\n\n  kosher salt and ground black pepper to taste\n\n\n2 tablespoons matzo meal\n\n\n  avocado oil cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package frozen shredded hash brown potatoes, thawed\n\n\n½ cup shredded onion\n\n\n1  egg\n\n\n  kosher salt and ground black pepper to taste\n\n\n2 tablespoons matzo meal\n\n\n  avocado oil cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 375 degrees F (190 degrees C) according to manufacturer's instructions. Lay out a sheet of parchment or waxed paper."},{"recipe_directions":"Place thawed potatoes and shredded onion on several layers of paper towels. Cover with more paper towels and press to squeeze out most of the liquid."},{"recipe_directions":"Whisk together egg, salt, and pepper in a large bowl. Stir in potatoes and onion with a fork. Sprinkle matzo meal on top and stir until ingredients are evenly distributed. Use your hands to form mixture into ten 3- to 4-inch wide patties. Place patties on the parchment or waxed paper."},{"recipe_directions":"Spray the air fryer basket with cooking spray. Carefully place half of the patties in the basket and spray generously with cooking spray."},{"recipe_directions":"Air-fry until crispy and dark golden brown on the outside, 10 to 12 minutes. (Check for doneness at 8 minutes if you prefer a softer latke.) Remove latkes to a plate. Repeat with remaining patties, spraying them with cooking spray before cooking."}]</t>
         </is>
       </c>
-      <c r="L39" s="1" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M39" s="1" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"97\nCalories\n\n\n7g \nFat\n\n\n19g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699653797-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Uiw_liHvDf6lp31gdFdExwXJSUU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2642x0:2644x2):format(webp)/9442947-28119cb060704765a14389e4667a8ae8.jpg"
@@ -3007,69 +3200,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18028/potato-pancakes-ii/</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Easy Leftover Potato Pancakes</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n5 \n\n\nYield:\n10 pancakes"}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups mashed potatoes\n\n\n¼ cup shredded Cheddar cheese\n\n\n1 large egg, beaten\n\n\n1 teaspoon salt\n\n\n1 tablespoon butter\n\n\n1/2 cup to 3/4 cup all-purpose flour as needed (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mashed potatoes\n\n\n¼ cup shredded Cheddar cheese\n\n\n1 large egg, beaten\n\n\n1 teaspoon salt\n\n\n1 tablespoon butter\n\n\n1/2 cup to 3/4 cup all-purpose flour as needed (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix potatoes, cheese, beaten egg, and salt in a medium bowl until well combined. If the mixture is very wet, mix in flour as needed to bind mixture together."},{"recipe_directions":"Melt butter on a large griddle over medium heat. Drop potato mixture onto the hot griddle, 1/4 cup at a time. Flatten each pancake with the back of a spatula to 1/2-inch thickness. Fry until golden brown, about 5 minutes per side. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M40" s="1" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n15g \nFat\n\n\n24g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699653805-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CumLJwZEOPBHzJ27YwQIyjHPGvU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/846514-51df895faaaf4cb6819b03f82a9e4dc7.jpg"
@@ -3082,69 +3271,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220323/instant-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Instant Potato Pancakes</t>
         </is>
       </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup cold water\n\n\n1 large egg, beaten\n\n\n½ teaspoon salt\n\n\n¾ cup dry potato flakes\n\n\n2 tablespoons chopped fresh chives, divided\n\n\n1 pinch freshly ground black pepper\n\n\n1 pinch cayenne pepper, or to taste\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon butter\n\n\n¼ cup sour cream for garnish"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup cold water\n\n\n1 large egg, beaten\n\n\n½ teaspoon salt\n\n\n¾ cup dry potato flakes\n\n\n2 tablespoons chopped fresh chives, divided\n\n\n1 pinch freshly ground black pepper\n\n\n1 pinch cayenne pepper, or to taste\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon butter\n\n\n¼ cup sour cream for garnish'}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together cold water, egg, and salt in a large bowl until salt has dissolved. Mix in dry potato flakes until incorporated. Stir in 1 tablespoon chives; season with black pepper and cayenne pepper."},{"recipe_directions":"Divide potato mixture into 4 equal portions and shape into pancakes."},{"recipe_directions":"Heat oil and butter in a large skillet over medium-high heat. Swirl the pan to combine."},{"recipe_directions":"Place pancakes in the pan, reduce heat to medium, and cook until the bottoms are browned, about 10 minutes. Flip and flatten slightly. Cook until other sides are browned, 7 to 8 more minutes."},{"recipe_directions":"Transfer pancakes to a serving plate. Top each with a dollop of sour cream and sprinkle with remaining chives."}]</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M41" s="1" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"135\nCalories\n\n\n11g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699653810-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IARca4pTl2qVY_2UqR9LPQC8o80=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x1079:641x1081):format(webp)/7784361-potato-latkes-i-Andy-San-1x1-1-2fbc4093857548a089dc1e6af0e6b137.jpg"
@@ -3158,69 +3343,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16073/potato-latkes-i/</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Potato Latkes</t>
         </is>
       </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n12 latkes"}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 medium russet potatoes, peeled\n\n\n1 large egg, beaten, or more to taste\n\n\n2 tablespoons all-purpose flour\n\n\n1 tablespoon grated onion\n\n\n½ teaspoon salt, or more to taste\n\n\n¼ cup peanut oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 medium russet potatoes, peeled\n\n\n1 large egg, beaten, or more to taste\n\n\n2 tablespoons all-purpose flour\n\n\n1 tablespoon grated onion\n\n\n½ teaspoon salt, or more to taste\n\n\n¼ cup peanut oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice peeled potatoes and run through a food processor fitted with the grater attachment. Place shredded potatoes in a cheesecloth and wring, extracting as much moisture as possible."},{"recipe_directions":"Measure 2 cups shredded, drained potatoes and place into a medium bowl; save any extra for another use. Add egg, flour, onion, and salt, and stir until well combined."},{"recipe_directions":"Heat 1/4 inch of oil in a large, heavy-bottomed skillet over medium-high heat. Place large spoonfuls of potato mixture into the hot oil, pressing down on them to form 1/4- to 1/2-inch-thick patties. Cook until golden brown, 4 to 5 minutes. Flip and repeat on the other side."},{"recipe_directions":"Remove to a paper towel-lined plate to drain while you cook any remaining latkes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L42" s="1" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M42" s="1" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n11g \nFat\n\n\n22g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699653817-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AO0cqBNzdfXEl93hv2FaRoeGNM8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/321513-dcbe9b8e21074597961c14c9ae4ab803.jpg"
@@ -3233,69 +3414,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161679/irish-boxty/</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Irish Boxty</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups grated raw potatoes\n\n\n1 cup all-purpose flour\n\n\n1 cup leftover mashed potatoes\n\n\n1 large egg\n\n\n1 tablespoon skim milk\n\n\n  salt and pepper to taste\n\n\n¼ cup olive oil"}]</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups grated raw potatoes\n\n\n1 cup all-purpose flour\n\n\n1 cup leftover mashed potatoes\n\n\n1 large egg\n\n\n1 tablespoon skim milk\n\n\n  salt and pepper to taste\n\n\n¼ cup olive oil'}]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss grated potatoes with flour in a large bowl. Stir in mashed potatoes until combined."},{"recipe_directions":"Whisk egg and milk together in a separate bowl; mix into the potatoes. Season to taste with salt and pepper."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Drop in potato mixture, forming patties about 2 inches in diameter. Fry on both sides until golden brown, 3 to 4 minutes per side. Drain on a paper towel-lined plate. Serve warm."}]</t>
         </is>
       </c>
-      <c r="L43" s="1" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M43" s="1" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"227\nCalories\n\n\n10g \nFat\n\n\n29g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699653824-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZQOdVX0GBXA2V4Z8Ik2-YwI8GHI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3379636-e15a579324d34f9aa062132e8555f2e0.jpg"
@@ -3308,69 +3485,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33118/german-potato-pancakes/</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>German Potato Pancakes</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 large eggs\n\n\n2 tablespoons all-purpose flour\n\n\n¼ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n6 medium potatoes, peeled and shredded\n\n\n½ cup finely chopped onion\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs\n\n\n2 tablespoons all-purpose flour\n\n\n¼ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n6 medium potatoes, peeled and shredded\n\n\n½ cup finely chopped onion\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat eggs, flour, baking powder, salt, and pepper together in a large bowl; stir in potatoes and onion."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Drop heaping tablespoonfuls of potato mixture into hot oil in batches. Press to flatten. Cook until browned and crisp, about 3 minutes on each side. Transfer to a paper towel-lined plate to drain. Repeat with remaining potato mixture."}]</t>
         </is>
       </c>
-      <c r="L44" s="1" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M44" s="1" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"283\nCalories\n\n\n11g \nFat\n\n\n41g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699653831-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Potato Pancakes</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1545/side-dish/potatoes/potato-pancakes/</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/i5wU3vWv_vts9LKT2XgVKydiq44=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/My-Crispy-Mashed-Potato-Pancake-4e1395406a7c43cd891477cf857689ea.jpg"
@@ -3384,136 +3557,104 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222608/my-crispy-mashed-potato-pancake/</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>My Crispy Mashed Potato Pancake</t>
         </is>
       </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups cold mashed potatoes\n\n\n2 eggs, lightly beaten\n\n\n1 tablespoon all-purpose flour, or more if needed\n\n\n⅛ teaspoon garlic powder\n\n\n1 tablespoon vegetable oil, plus more as needed\n\n\n1 tablespoon chopped fresh chives"}]</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups cold mashed potatoes\n\n\n2 eggs, lightly beaten\n\n\n1 tablespoon all-purpose flour, or more if needed\n\n\n⅛ teaspoon garlic powder\n\n\n1 tablespoon vegetable oil, plus more as needed\n\n\n1 tablespoon chopped fresh chives'}]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes, eggs, flour, and garlic powder in a bowl; mix well. If your mashed potatoes are on the wet side, add 1 tablespoon of flour at a time until you reach a better consistency for shaping. Shape potato mixture into one large pancake on a lightly oiled plate."},{"recipe_directions":"Heat oil in a nonstick skillet over medium heat. Slide potato pancake into the skillet, pressing with a spatula to flatten evenly. Cover and cook until bottom is crispy, about 8 to 10 minutes."},{"recipe_directions":"To cook the other side, slide pancake onto a serving plate. Cover with another plate and flip. Slide pancake back into the skillet and cook until crispy, about 3 to 5 minutes. Slice into wedges and serve hot, garnished with fresh chives."}]</t>
         </is>
       </c>
-      <c r="L45" s="1" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="M45" s="1" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n10g \nFat\n\n\n20g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699653839-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699653844-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/n3jP_IX71usJoLQDYqv5BIkcMS0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/892804-4f73594f21764d78af69f5a80b8bf3b6.jpg"
@@ -3526,69 +3667,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275043/sweet-breakfast-hash-with-apple-and-rosemary/</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Sweet Breakfast Hash with Apple and Rosemary</t>
         </is>
       </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons olive oil\n\n\n3 medium russet potatoes, diced\n\n\n½ medium sweet onion, chopped\n\n\n1 (12 ounce) package sweet chicken sausage links (such as al fresco® Sweet Apple Chicken Sausage), diced\n\n\n1  Golden Delicious apple - peeled, cored, and diced\n\n\n½ cup dried cranberries (Optional)\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon ground fennel seeds\n\n\n½ teaspoon chopped fresh rosemary\n\n\n¼ teaspoon red pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n3 medium russet potatoes, diced\n\n\n½ medium sweet onion, chopped\n\n\n1 (12 ounce) package sweet chicken sausage links (such as al fresco® Sweet Apple Chicken Sausage), diced\n\n\n1  Golden Delicious apple - peeled, cored, and diced\n\n\n½ cup dried cranberries (Optional)\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon ground fennel seeds\n\n\n½ teaspoon chopped fresh rosemary\n\n\n¼ teaspoon red pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large saute pan over medium-high heat. Add potatoes and onion and cook until potatoes are slightly brown and onions are translucent, 12 to 15 minutes."},{"recipe_directions":"Heat a small saute pan over medium-high heat. Saute sausage, apple, cranberries, salt, black pepper, fennel, rosemary, and red pepper flakes for 5 minutes. Add to potato mixture and serve."}]</t>
         </is>
       </c>
-      <c r="L47" s="1" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M47" s="1" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n9g \nFat\n\n\n32g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699653850-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TW4mwwECY1BpnMePFRY5vkT4jOM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(541x0:543x2):format(webp)/9230608-e4a8edb8e81e4886b8371734e5f095c0.jpg"
@@ -3601,69 +3738,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254806/the-best-most-addictive-potatoes/</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>The Best, Most Addictive Potatoes</t>
         </is>
       </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n14 \n\n\nYield:\n14 servings"}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (28 ounce) package frozen hash browns\n\n\n2  (16 ounce) containers sour cream\n\n\n2 cups shredded Cheddar cheese\n\n\n1 (2 ounce) package real bacon bits\n\n\n2 (1 ounce) packages ranch dressing mix"}]</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (28 ounce) package frozen hash browns\n\n\n2  (16 ounce) containers sour cream\n\n\n2 cups shredded Cheddar cheese\n\n\n1 (2 ounce) package real bacon bits\n\n\n2 (1 ounce) packages ranch dressing mix'}]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Combine hash browns, sour cream, Cheddar cheese, bacon bits, and ranch dressing mix in a bowl; stir until mixed. Pour into a 9x12-inch baking pan."},{"recipe_directions":"Bake in the preheated oven until potatoes are golden brown and cooked through, 45 to 60 minutes."}]</t>
         </is>
       </c>
-      <c r="L48" s="1" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M48" s="1" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"274\nCalories\n\n\n23g \nFat\n\n\n15g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699653856-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yZ7f5vFH0889sl8KvEuk96kYXu8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4413415-6a6eca777f58402f8d9b7d8de1b50ff9.jpg"
@@ -3674,69 +3807,65 @@
 Hash Brown Sausage Patty</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255078/hash-brown-sausage-patty/</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Hash Brown Sausage Patty</t>
         </is>
       </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n9 mins\n\n\nTotal Time:\n19 mins\n\n\nServings:\n2 \n\n\nYield:\n2 patties"}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1  red potato\n\n\n1 (4 ounce) link sausage (such as Johnsonville®)\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon chopped fresh chives, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  red potato\n\n\n1 (4 ounce) link sausage (such as Johnsonville®)\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon chopped fresh chives, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut red potato into spirals using a spiralizer. Dip into a bowl of cold water; rinse and transfer to a microwave-safe bowl."},{"recipe_directions":"Cook potato spirals in the microwave on high for 1 minute. Blot with paper towels to remove any moisture."},{"recipe_directions":"Remove sausage from its casing and shape into 2 balls; press into round discs."},{"recipe_directions":"Heat a nonstick skillet over medium heat. Add 2 round piles of potato spirals. Season with salt and pepper. Top each pile with a sausage disc and press down firmly with a spatula to make thin patties. Cook until well browned, about 4 minutes per side. Garnish with chives."}]</t>
         </is>
       </c>
-      <c r="L49" s="1" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M49" s="1" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"158\nCalories\n\n\n12g \nFat\n\n\n4g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699653861-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/51cyJqZoa9rbx_BSsf2d1EE4zSw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4551763-d9e9e237a02243e5960c48ee2eedea93.jpg"
@@ -3749,69 +3878,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213913/cheesy-breakfast-potatoes/</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Cheesy Breakfast Potatoes</t>
         </is>
       </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n13 mins\n\n\nTotal Time:\n28 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 tablespoon garlic-flavored oil\n\n\n4 ½ cups cubed potatoes\n\n\n1 cup Canadian bacon, cut into 1/2-inch dice\n\n\n¾ cup chopped red bell pepper\n\n\n¼ cup chopped chives or green onions\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon dried basil leaves\n\n\n2 cups Sargento® Shredded Reduced Fat Mild Cheddar Cheese, divided\n\n\n1 pinch Salt and pepper, to taste"}]</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon garlic-flavored oil\n\n\n4 ½ cups cubed potatoes\n\n\n1 cup Canadian bacon, cut into 1/2-inch dice\n\n\n¾ cup chopped red bell pepper\n\n\n¼ cup chopped chives or green onions\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon dried basil leaves\n\n\n2 cups Sargento® Shredded Reduced Fat Mild Cheddar Cheese, divided\n\n\n1 pinch Salt and pepper, to taste'}]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil over medium heat in large skillet. Add potatoes; cook 10 minutes, or until potatoes are browned and tender, stirring frequently."},{"recipe_directions":"Stir in bacon, red pepper, chives, garlic and basil. Cook 3 minutes, until red pepper is crisp-tender, stirring frequently. Add 1 cup cheese; stir until melted. Season to taste with salt and pepper. Top with remaining cheese."}]</t>
         </is>
       </c>
-      <c r="L50" s="1" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="M50" s="1" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"263\nCalories\n\n\n12g \nFat\n\n\n22g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699653865-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s-mqogRF2DbGsSbdAITukc8v6Is=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/7539525-f23a07371e434a0c86d0994f0e740095.jpg"
@@ -3824,69 +3949,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277971/christmas-who-hash/</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Christmas Who Hash</t>
         </is>
       </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 tablespoon vegetable oil\n\n\n1 tablespoon butter\n\n\n1 cup chopped onion\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped red bell pepper\n\n\n8 cups frozen hash brown potatoes, thawed\n\n\n4 ounces corned beef, diced\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1 tablespoon butter\n\n\n1 cup chopped onion\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped red bell pepper\n\n\n8 cups frozen hash brown potatoes, thawed\n\n\n4 ounces corned beef, diced\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil and butter in a large nonstick skillet over medium heat. Add onion; cook for 5 minutes. Stir in bell peppers; cook for 3 minutes. Add potatoes, corned beef, garlic powder, salt, and pepper. Cook, stirring occasionally, until potatoes are golden brown and corned beef is browned, about 16 minutes."}]</t>
         </is>
       </c>
-      <c r="L51" s="1" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M51" s="1" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"374\nCalories\n\n\n28g \nFat\n\n\n62g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699653869-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JXvEHJIy1GKOD1MmZe1xGUP4k4s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Crispy-Restaurant-Style-Hash-Browns-1-by-1-2000-195d6123b06d42acb4c6c6525809dd92.jpg"
@@ -3900,69 +4021,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282549/crispy-restaurant-style-hash-browns/</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Crispy Restaurant-Style Hash Browns</t>
         </is>
       </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 medium russet potatoes, peeled and shredded\n\n\n½ medium yellow onion, chopped\n\n\n¼ cup all-purpose flour\n\n\n  salt and ground black pepper to taste\n\n\n1 large egg\n\n\n½ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 medium russet potatoes, peeled and shredded\n\n\n½ medium yellow onion, chopped\n\n\n¼ cup all-purpose flour\n\n\n  salt and ground black pepper to taste\n\n\n1 large egg\n\n\n½ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse shredded potatoes in a colander with cold water until water runs clear. Place in a cheesecloth or clean dish towel and twist tightly to squeeze out all moisture."},{"recipe_directions":"Place potatoes in a bowl with onion, flour, salt, and pepper. Add egg and mix thoroughly."},{"recipe_directions":"Heat oil in a shallow, cast iron frying pan. Add potato mixture to the hot oil to form either on large or several smaller pancakes. Cook until browned and crispy, about 5 minutes per side. Drain on a paper towel and serve hot."}]</t>
         </is>
       </c>
-      <c r="L52" s="1" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M52" s="1" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"562\nCalories\n\n\n39g \nFat\n\n\n48g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699653874-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/d-Y00LTMq6BDZ9XKxp55o_qw3QQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8807438-9466a59ea0d04fada7232774402598c2.jpg"
@@ -3975,69 +4092,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281894/spicy-sweet-potato-hash/</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Spicy Sweet Potato Hash</t>
         </is>
       </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 strips uncured chicken bacon\n\n\n2 medium sweet potatoes, cubed\n\n\n1 tablespoon olive oil, or more as needed\n\n\n1 large jalapeno pepper, finely chopped\n\n\n1 ½ tablespoons BBQ sauce\n\n\n1 teaspoon garlic powder\n\n\n1 pinch ground dried chipotle pepper\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 strips uncured chicken bacon\n\n\n2 medium sweet potatoes, cubed\n\n\n1 tablespoon olive oil, or more as needed\n\n\n1 large jalapeno pepper, finely chopped\n\n\n1 ½ tablespoons BBQ sauce\n\n\n1 teaspoon garlic powder\n\n\n1 pinch ground dried chipotle pepper\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat, turning occasionally, until evenly browned, about 5 minutes. Drain on paper towels and crumble when cool enough to handle."},{"recipe_directions":"While the bacon cooks, put the cubed sweet potatoes in a microwave-safe bowl and microwave on high power for 5 minutes."},{"recipe_directions":"Heat a large skillet over medium heat. Add olive oil, then add sweet potatoes, garlic powder, chipotle powder, salt, and black pepper. Cook until potatoes are brown and crisp, 5 to 7 minutes. Add bacon, jalapeno, and BBQ sauce and cook over low heat, 2 to 3 minutes more."}]</t>
         </is>
       </c>
-      <c r="L53" s="1" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M53" s="1" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"279\nCalories\n\n\n7g \nFat\n\n\n51g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699653879-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/w5uKbHngmnUo3f-5s1zwcImibx0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/4560667-6db3bd7e8273479c940f05101d3b64df.jpg"
@@ -4050,69 +4163,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21179/hungry-mans-hash-browns/</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Hungry Man's Hash Browns</t>
         </is>
       </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n5 \n\n\nYield:\n4 to 6 servings"}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"10 cups large chunks of peeled potatoes\n\n\n8 slices bacon\n\n\n3 large onions, sliced\n\n\n1 ½ teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 cups large chunks of peeled potatoes\n\n\n8 slices bacon\n\n\n3 large onions, sliced\n\n\n1 ½ teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes in large pot. Fill the pot with cold water until it is half an inch above the top of the potatoes. Add the salt to the water and stir briefly to dissolve. Bring water to a boil and cook until tender, about 15 to 20 minutes. Drain and set aside to cool."},{"recipe_directions":"Place bacon in a large, deep skillet. Cook over medium high heat until evenly brown. Remove bacon, drain, cool and crumble. Leave bacon fat in skillet and return to stove."},{"recipe_directions":"Add potato chunks, onion and crumbled bacon to skillet. Cook over medium high heat until potatoes begin to brown and onions are translucent, about 25 minutes."}]</t>
         </is>
       </c>
-      <c r="L54" s="1" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M54" s="1" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"474\nCalories\n\n\n21g \nFat\n\n\n61g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699653884-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cRha6Ig4aZehIQYYBxuyaA-Otxc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/memphis-bbq-pork-totchos-73b1bf7821bb467a948e04795aa85894.jpeg"
@@ -4124,69 +4233,65 @@
 23 Easy Dinners That Start with Frozen Potatoes</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/best-dinner-recipes-with-frozen-potatoes/</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>23 Easy Dinners That Start with Frozen Potatoes</t>
         </is>
       </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L55" s="1" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Convenience Cooking"},{"recipe_tags":"Frozen Food"}]</t>
         </is>
       </c>
-      <c r="M55" s="1" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699653892-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kemdRYyx4JBSry5ibiwlDYpBTmU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1296x0:1298x2):format(webp)/5571226-e59dfaed5cdd452b996ad5339a32f5e2.jpg"
@@ -4199,69 +4304,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266403/tex-mex-air-fryer-hash-browns/</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Tex-Mex Air Fryer Hash Browns</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ pounds potatoes, peeled and cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1  red bell pepper, seeded and cut into 1-inch pieces\n\n\n1 small onion, cut into 1-inch pieces\n\n\n1  jalapeno, seeded and cut into 1-inch rings\n\n\n½ teaspoon olive oil\n\n\n½ teaspoon taco seasoning mix\n\n\n½ teaspoon ground cumin\n\n\n1 pinch salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds potatoes, peeled and cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1  red bell pepper, seeded and cut into 1-inch pieces\n\n\n1 small onion, cut into 1-inch pieces\n\n\n1  jalapeno, seeded and cut into 1-inch rings\n\n\n½ teaspoon olive oil\n\n\n½ teaspoon taco seasoning mix\n\n\n½ teaspoon ground cumin\n\n\n1 pinch salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak potatoes in cool water for 20 minutes."},{"recipe_directions":"Preheat the air fryer to 320 degrees F (160 degrees C). Drain the potatoes, dry them with a clean towel, and transfer to a large bowl. Drizzle 1 tablespoon olive oil over the potatoes and toss to coat. Add them to the preheated air fryer basket. Set the timer for 18 minutes."},{"recipe_directions":"Put bell pepper, onion, and jalapeno in the bowl previously used for the potatoes. Sprinkle in 1/2 teaspoon olive oil, taco seasoning, ground cumin, salt, and pepper. Toss to coat."},{"recipe_directions":"Transfer potatoes from the air fryer to the bowl with the vegetable mixture. Return the empty basket to the air fryer and raise the temperature to 356 degrees F (180 degrees C)."},{"recipe_directions":"Quickly toss the contents of the bowl to mix the potatoes evenly with the vegetables and seasoning. Transfer mixture into the basket. Cook for 6 minutes, shake the basket, and continue cooking until potatoes are browned and crispy, about 5 minutes more. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="L56" s="1" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M56" s="1" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"186\nCalories\n\n\n4g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699653897-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dOK5cA1QwRnFGoHz381J2Dc6BIo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9229790-ed1d646da8fb40fcb80a0dd96888aa56.jpg"
@@ -4274,69 +4375,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284600/cheesy-sheet-pan-hash-browns/</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Cheesy Sheet Pan Hash Browns</t>
         </is>
       </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n1 (30 ounce) package frozen hash brown potatoes, thawed\n\n\n2 large eggs, whisked\n\n\n1 teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n½ teaspoon garlic powder\n\n\n1 cup shredded Cheddar cheese\n\n\n½ cup butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 (30 ounce) package frozen hash brown potatoes, thawed\n\n\n2 large eggs, whisked\n\n\n1 teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n½ teaspoon garlic powder\n\n\n1 cup shredded Cheddar cheese\n\n\n½ cup butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Spray a large nonstick baking sheet with cooking spray or line your baking sheet with parchment paper."},{"recipe_directions":"Dump hash browns into a large bowl. Whisk together eggs, salt, pepper, and garlic powder. Pour egg mixture over the potatoes and stir gently to combine as best you can. Stir in shredded Cheddar cheese until evenly distributed."},{"recipe_directions":"Pour melted butter all over the hash browns and stir gently to coat - if the hash browns are still frozen, the butter will chill and set quickly. Spread the hash brown mixture evenly and thinly on the baking sheet."},{"recipe_directions":"Bake in the preheated oven until hash browns are browned and crispy all the way around and cheese is melted, about 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L57" s="1" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M57" s="1" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"175\nCalories\n\n\n16g \nFat\n\n\n13g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699653901-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WudyFSPv5etrRYlIOPGw9mOQSz4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8500725-91e71a0bfa81437c95c3e9433b4a01ca.jpg"
@@ -4349,69 +4446,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/148834/amish-hash-browns/</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Amish Hash Browns</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup flour\n\n\n⅓ cup yellow cornmeal\n\n\n2 teaspoons salt\n\n\n1 teaspoon baking powder\n\n\n5 cups peeled and shredded potatoes\n\n\n⅓ cup vegetable oil\n\n\n2  eggs\n\n\n1  onion, minced\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup flour\n\n\n⅓ cup yellow cornmeal\n\n\n2 teaspoons salt\n\n\n1 teaspoon baking powder\n\n\n5 cups peeled and shredded potatoes\n\n\n⅓ cup vegetable oil\n\n\n2  eggs\n\n\n1  onion, minced\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, mix together the flour, cornmeal, salt and baking powder. Add potatoes, 1/3 cup of oil, eggs and onion and mix until evenly blended."},{"recipe_directions":"Heat 1/4 cup of oil in a large skillet over medium-high heat. Drop heaping tablespoons of the potatoes into the hot oil, flattening slightly. Cook until browned on the bottom and then flip and cook on the other side. Keep in a warm oven while frying the rest."}]</t>
         </is>
       </c>
-      <c r="L58" s="1" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M58" s="1" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"231\nCalories\n\n\n14g \nFat\n\n\n23g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699653906-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NVH3IEE4C53muk8wwdetbSVCJX0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/7463521-e7b717f0708b44f1bdee8e0339d9923f.jpg"
@@ -4424,69 +4517,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229887/sweet-potato-and-fennel-hash/</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Sweet Potato and Fennel Hash</t>
         </is>
       </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 ounces bacon, cut into 1-inch pieces\n\n\n½ large yellow onion, chopped\n\n\n½ bulb fennel, chopped\n\n\n1  sweet potato, cut into small cubes\n\n\n½  jalapeno pepper, seeded and minced\n\n\n¼ cup whiskey (such as Jack Daniel's®)\n\n\n¼ cup brown sugar\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "4 ounces bacon, cut into 1-inch pieces\n\n\n½ large yellow onion, chopped\n\n\n½ bulb fennel, chopped\n\n\n1  sweet potato, cut into small cubes\n\n\n½  jalapeno pepper, seeded and minced\n\n\n¼ cup whiskey (such as Jack Daniel's®)\n\n\n¼ cup brown sugar\n\n\n  salt and ground black pepper to taste"}]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat until evenly browned, about 10 minutes. Remove bacon from skillet with slotted spoon to a plate lined with paper towel, retaining drippings in the skillet."},{"recipe_directions":"Reduce heat to medium. Cook and stir onion and fennel in hot bacon drippings until golden brown, about 10 minutes. Add sweet potato, place a cover on the skillet, and cook until sweet potato is tender and slightly browned, about 10 minutes."},{"recipe_directions":"Increase heat to medium-high. Pour whiskey into the skillet and bring to a boil while scraping the browned bits of food off of the bottom of the pan with a wooden spoon. Stir bacon in the vegetable mixture. Add brown sugar and stir to incorporate. Reduce heat to medium; cook and stir until the whiskey has been absorbed and the liquid is caramel-colored, about 5 minutes. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="L59" s="1" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M59" s="1" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"197\nCalories\n\n\n9g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699653910-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Knw6CrJ85EnVM0F3nwuHquvkB8Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/430172-44623dbed6464428927f0fe879be4827.jpg"
@@ -4499,69 +4588,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/67705/asiago-hash-browns/</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Asiago Hash Browns</t>
         </is>
       </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (30 ounce) package frozen hash brown potatoes, thawed\n\n\n1 ½ cups grated Asiago cheese\n\n\n1 medium onion, chopped\n\n\n1 (8 ounce) container sour cream\n\n\n8 fluid ounces heavy cream\n\n\n½ cup butter, melted\n\n\n  paprika to taste\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (30 ounce) package frozen hash brown potatoes, thawed\n\n\n1 ½ cups grated Asiago cheese\n\n\n1 medium onion, chopped\n\n\n1 (8 ounce) container sour cream\n\n\n8 fluid ounces heavy cream\n\n\n½ cup butter, melted\n\n\n  paprika to taste\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a medium casserole dish, mix the hash browns, Asiago cheese, onion, sour cream, heavy cream, and butter."},{"recipe_directions":"Bake 1 hour in the preheated oven, or until hash browns are fully cooked and the top is lightly browned. Season with paprika, salt, and pepper."}]</t>
         </is>
       </c>
-      <c r="L60" s="1" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M60" s="1" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"429\nCalories\n\n\n41g \nFat\n\n\n22g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699653913-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uFN3bFxKleW-GMiRaVCT_m0RXdA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4560359-1547f06b25b3433ea34b878251621b3a.jpg"
@@ -4574,69 +4659,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/40555/hamburger-quiche/</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Hamburger Quiche</t>
         </is>
       </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n1 (9 inch) pie"}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (16 ounce) package frozen hash brown potatoes, thawed\n\n\n½ pound ground beef\n\n\n1 small onion, minced\n\n\n1 cup milk\n\n\n2  eggs, beaten\n\n\n1 tablespoon cornstarch\n\n\n½ pound sharp Cheddar cheese, shredded\n\n\n¼ teaspoon liquid smoke flavoring\n\n\n1 (3 ounce) jar real bacon bits\n\n\n2 teaspoons Worcestershire sauce\n\n\n  salt\n\n\n¼ pound sharp Cheddar cheese, shredded"}]</t>
-        </is>
-      </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package frozen hash brown potatoes, thawed\n\n\n½ pound ground beef\n\n\n1 small onion, minced\n\n\n1 cup milk\n\n\n2  eggs, beaten\n\n\n1 tablespoon cornstarch\n\n\n½ pound sharp Cheddar cheese, shredded\n\n\n¼ teaspoon liquid smoke flavoring\n\n\n1 (3 ounce) jar real bacon bits\n\n\n2 teaspoons Worcestershire sauce\n\n\n  salt\n\n\n¼ pound sharp Cheddar cheese, shredded'}]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease a 9 inch pie dish."},{"recipe_directions":"Press hash browns onto the bottom and sides of pie dish. Bake in preheated oven for 25 to 30 minutes, or until it begins to brown."},{"recipe_directions":"Meanwhile, place ground beef and onion in a large, deep skillet. Cook over medium-high heat until beef evenly brown. Drain, crumble and allow to cool. In a medium bowl, whisk together milk, eggs and cornstarch. Stir in 1/2 pound shredded cheese and ground beef mixture. Mix in the liquid smoke, bacon bits, Worcestershire sauce and salt. Pour into hash brown crust."},{"recipe_directions":"Bake in preheated oven for 20 minutes. Remove from oven, sprinkle 1/4 pound of grated sharp cheddar on top, and place back in the oven. Bake 15 minutes, or until filling is puffed and golden brown. Let stand for 20 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="L61" s="1" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M61" s="1" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"513\nCalories\n\n\n39g \nFat\n\n\n19g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699653918-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/czSKSEsp7ny7YhH_EBPBzmQVPo8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/8758999-d7107e6f877f405699a1e90fe3144017.jpg"
@@ -4649,69 +4730,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281893/sweet-potato-and-chorizo-hash/</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Sweet Potato and Chorizo Hash</t>
         </is>
       </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons olive oil\n\n\n1 medium sweet potato, peeled and cut into 1/2-inch cubes\n\n\n1 teaspoon chopped fresh rosemary\n\n\n  salt and ground black pepper to taste\n\n\n1 medium onion, diced\n\n\n½ teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n1 link Spanish chorizo sausage, casing removed, chopped"}]</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 medium sweet potato, peeled and cut into 1/2-inch cubes\n\n\n1 teaspoon chopped fresh rosemary\n\n\n  salt and ground black pepper to taste\n\n\n1 medium onion, diced\n\n\n½ teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n1 link Spanish chorizo sausage, casing removed, chopped'}]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a skillet over medium heat. Add sweet potato to the hot oil and saute, stirring and lowering the heat if necessary to avoid burning, about 5 minutes. Add rosemary, salt, and pepper, and cook until potato begins to soften, about 5 minutes more."},{"recipe_directions":"Stir in onion, cumin, and cayenne pepper; cook until onions are soft, 5 to 7 minutes. Add chorizo and increase heat to medium-high. Cook and stir until potatoes are tender (not mushy) and brown and chorizo becomes crisp, 1 to 2 minutes."}]</t>
         </is>
       </c>
-      <c r="L62" s="1" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M62" s="1" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"340\nCalories\n\n\n22g \nFat\n\n\n29g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>1699653923-62</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D63" s="1" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E63" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F63" s="1" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FugLcGm0PaG-Q-tcdiyBOdnuJmE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4068432-f606e5a941d34bb3a588dec4620211b0.jpg"
@@ -4723,69 +4800,65 @@
 Our Best Hash Recipes to Make Any Time of Day</t>
         </is>
       </c>
-      <c r="G63" s="1" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/best-hash-recipes/</t>
         </is>
       </c>
-      <c r="H63" s="1" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Our Best Hash Recipes to Make Any Time of Day</t>
         </is>
       </c>
-      <c r="I63" s="1" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J63" s="1" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K63" s="1" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L63" s="1" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M63" s="1" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>1699653930-63</t>
         </is>
       </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E64" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F64" s="1" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z-EvCCOf7QU8s7QlxN1NLQHNDnU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1808x1282:1810x1284):format(webp)/266541-air-fryer-sweet-potato-hash-GOLDMAN-R311191-4x3-3321-fbce77b1ae754424909fe9288e18e580.jpg"
@@ -4799,69 +4872,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G64" s="1" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266541/air-fryer-sweet-potato-hash/</t>
         </is>
       </c>
-      <c r="H64" s="1" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Air Fryer Sweet Potato Hash</t>
         </is>
       </c>
-      <c r="I64" s="1" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J64" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 large sweet potato, cut into small cubes\n\n\n2 slices bacon, cut into small pieces\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon smoked paprika\n\n\n1 teaspoon sea salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon dried dill weed"}]</t>
-        </is>
-      </c>
-      <c r="K64" s="1" t="inlineStr">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large sweet potato, cut into small cubes\n\n\n2 slices bacon, cut into small pieces\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon smoked paprika\n\n\n1 teaspoon sea salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon dried dill weed'}]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss sweet potato, bacon, olive oil, paprika, salt, pepper, and dill in a large bowl. Place mixture into the preheated air fryer. Cook for 12 to 16 minutes. Check and stir after 10 minutes and then every 3 minutes until crispy and browned."}]</t>
         </is>
       </c>
-      <c r="L64" s="1" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M64" s="1" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"191\nCalories\n\n\n6g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>1699653937-64</t>
         </is>
       </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D65" s="1" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F65" s="1" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mHTEvOCESw0uu0Ejpj76gxopwt8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/9442181-5682c139b2b0486dbb826d86247f050c.jpg"
@@ -4874,69 +4943,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G65" s="1" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/286240/frozen-hash-brown-patties-in-the-air-fryer/</t>
         </is>
       </c>
-      <c r="H65" s="1" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Frozen Hash Brown Patties in the Air Fryer</t>
         </is>
       </c>
-      <c r="I65" s="1" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 hash brown patties"}]</t>
         </is>
       </c>
-      <c r="J65" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 (2 ounce) frozen hash brown potatoes, thawed\n\n\n  salt and freshly ground black pepper to taste (optional)"}]</t>
-        </is>
-      </c>
-      <c r="K65" s="1" t="inlineStr">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 (2 ounce) frozen hash brown potatoes, thawed\n\n\n  salt and freshly ground black pepper to taste (optional)'}]</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 380 degrees F (190 degrees C)."},{"recipe_directions":"Place frozen hash brown patties in the air fryer basket in an even layer without overlapping."},{"recipe_directions":"Cook in the air fryer until heated through and crisp, 12 to 15 minutes. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="L65" s="1" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Cookware and Equipment"},{"recipe_tags":"Air Fryer"}]</t>
         </is>
       </c>
-      <c r="M65" s="1" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"51\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>1699653941-65</t>
         </is>
       </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D66" s="1" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F66" s="1" t="inlineStr">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2vtqqEoSTYHMFXJCQQ8UInthseI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/517178-db593177bd684ae78b314ec6ab14bdf5.jpg"
@@ -4949,69 +5014,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G66" s="1" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21015/grandmas-hash-browns/</t>
         </is>
       </c>
-      <c r="H66" s="1" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Grandma's Hash Browns</t>
         </is>
       </c>
-      <c r="I66" s="1" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 11 hrs 55 mins\n\n\nTotal Time:\n 13 hrs 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J66" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"8 large russet potatoes, peeled\n\n\n4 tablespoons butter\n\n\n1 tablespoon salt\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="K66" s="1" t="inlineStr">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 large russet potatoes, peeled\n\n\n4 tablespoons butter\n\n\n1 tablespoon salt\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan, cover potatoes with water. Bring water to a boil and cook until tender, about 20 minutes. Let cool in refrigerator overnight."},{"recipe_directions":"The next morning, heat butter in a large skillet or frying pan. Shred potatoes and add to pan. Season with salt and pepper. Cook until golden brown on bottom, flip and brown on other side."}]</t>
         </is>
       </c>
-      <c r="L66" s="1" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M66" s="1" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"337\nCalories\n\n\n6g \nFat\n\n\n67g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>1699653946-66</t>
         </is>
       </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D67" s="1" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E67" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F67" s="1" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KSl6hhveUKEw6X7DK21pDnYyDzc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7233078-7a412fd2b5524574b7865d763992a3c2.jpg"
@@ -5024,69 +5085,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G67" s="1" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/147539/steves-famous-garlic-home-fries/</t>
         </is>
       </c>
-      <c r="H67" s="1" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Steve's Famous Garlic Home Fries</t>
         </is>
       </c>
-      <c r="I67" s="1" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J67" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¼ cup butter or margarine\n\n\n4 (8 ounce) russet potatoes, quartered and sliced\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon paprika\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 teaspoons chopped fresh chives"}]</t>
-        </is>
-      </c>
-      <c r="K67" s="1" t="inlineStr">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter or margarine\n\n\n4 (8 ounce) russet potatoes, quartered and sliced\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon paprika\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 teaspoons chopped fresh chives'}]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt the butter or margarine in a large skillet over medium heat. Add the potatoes and spread out in an even layer. Cover and cook for about 5 minutes. Season with garlic, paprika, salt and pepper; stir to coat potatoes evenly."},{"recipe_directions":"Cover and cook for another 15 minutes, turning potatoes occasionally. Remove cover, and mix in chives. Increase heat to medium-high and cook for another 10 minutes, stirring frequently, or until potatoes are tender."}]</t>
         </is>
       </c>
-      <c r="L67" s="1" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M67" s="1" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"139\nCalories\n\n\n6g \nFat\n\n\n20g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>1699653950-67</t>
         </is>
       </c>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D68" s="1" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F68" s="1" t="inlineStr">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CbSJqoFs9ZaC6NdKDZo4w3SC2cI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5745811-c25ea29c910343a682047f8047d0ea87.jpg"
@@ -5099,69 +5156,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G68" s="1" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240642/cheesy-hashbrown-casserole/</t>
         </is>
       </c>
-      <c r="H68" s="1" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Sallie's Cheesy Hashbrown Casserole</t>
         </is>
       </c>
-      <c r="I68" s="1" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n16 \n\n\nYield:\n1 9x13-inch pan"}]</t>
         </is>
       </c>
-      <c r="J68" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 (16 ounce) packages frozen cubed hash brown potatoes, thawed\n\n\n2 (10.5 ounce) cans cream of chicken soup\n\n\n1 (16 ounce) package shredded Cheddar cheese\n\n\n1 pint sour cream\n\n\n½ cup melted butter (Optional)\n\n\n½ cup finely chopped onion\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper"},{"ingredients":"1 sleeve buttery round crackers (such as Ritz®), crushed (Optional)\n\n\n½ cup melted butter (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K68" s="1" t="inlineStr">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (16 ounce) packages frozen cubed hash brown potatoes, thawed\n\n\n2 (10.5 ounce) cans cream of chicken soup\n\n\n1 (16 ounce) package shredded Cheddar cheese\n\n\n1 pint sour cream\n\n\n½ cup melted butter (Optional)\n\n\n½ cup finely chopped onion\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper'}, {'recipe_ingredients': '1 sleeve buttery round crackers (such as Ritz®), crushed (Optional)\n\n\n½ cup melted butter (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a glass 9x13-inch baking pan."},{"recipe_directions":"Combine potatoes, cream of chicken soup, Cheddar cheese, sour cream, 1/2 cup melted butter, onion, salt, and pepper together in a bowl; spread into the prepared baking pan. Mix crushed crackers and 1/2 cup melted butter together in a bowl and sprinkle over potato mixture."},{"recipe_directions":"Bake in the preheated oven until bubbling and browned on top, 60 to 90 minutes."}]</t>
         </is>
       </c>
-      <c r="L68" s="1" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M68" s="1" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"394\nCalories\n\n\n31g \nFat\n\n\n19g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>1699653954-68</t>
         </is>
       </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D69" s="1" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F69" s="1" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KI563vy0FcqLZTk-ievdVsBifWo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3560799-bf3b3059cb0d47f9831345b71153d51b.jpg"
@@ -5174,69 +5227,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G69" s="1" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20749/country-style-fried-potatoes/</t>
         </is>
       </c>
-      <c r="H69" s="1" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Country-Style Fried Potatoes</t>
         </is>
       </c>
-      <c r="I69" s="1" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="J69" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="K69" s="1" t="inlineStr">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat shortening in a large cast iron skillet over medium-high heat. Add potatoes and cook, stirring occasionally, until potatoes are golden brown. Season with salt, pepper, garlic powder, and paprika. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L69" s="1" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M69" s="1" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n12g \nFat\n\n\n52g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>1699653959-69</t>
         </is>
       </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E70" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F70" s="1" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YI6xIXzvhmdzOCUy4M9yOOfJW3Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3821383-9f3eed0f2eb4495eb709fbde2d23d2fc.jpg"
@@ -5249,69 +5298,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G70" s="1" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254811/loaded-bacon-cheddar-and-ranch-potatoes/</t>
         </is>
       </c>
-      <c r="H70" s="1" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Loaded Bacon, Cheddar, and Ranch Potatoes</t>
         </is>
       </c>
-      <c r="I70" s="1" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="J70" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n1 (32 ounce) package frozen hash brown potatoes, thawed\n\n\n1 (16 ounce) container sour cream\n\n\n2 cups shredded Cheddar cheese, divided, or more to taste\n\n\n8 slices cooked bacon, crumbled\n\n\n1 (1 ounce) package ranch dressing mix"}]</t>
-        </is>
-      </c>
-      <c r="K70" s="1" t="inlineStr">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 (32 ounce) package frozen hash brown potatoes, thawed\n\n\n1 (16 ounce) container sour cream\n\n\n2 cups shredded Cheddar cheese, divided, or more to taste\n\n\n8 slices cooked bacon, crumbled\n\n\n1 (1 ounce) package ranch dressing mix'}]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 9x13-inch baking pan with cooking spray."},{"recipe_directions":"Mix hash browns, sour cream, 1 cup Cheddar, bacon, and ranch mix together in a large bowl until well combined. Spread into the prepared pan and cover with aluminum foil."},{"recipe_directions":"Bake in the preheated oven for 45 minutes. Remove the foil and sprinkle remaining Cheddar evenly across potatoes. Bake until cheese is bubbly and lightly browned around the edges, about 15 more minutes."}]</t>
         </is>
       </c>
-      <c r="L70" s="1" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M70" s="1" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"425\nCalories\n\n\n35g \nFat\n\n\n25g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>1699653964-70</t>
         </is>
       </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F71" s="1" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zSVvu1yxOpcqVDh-1217KAOPblc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2501x0:2503x2):format(webp)/9224984-6c12ccfb761c4d32a970c11bebe3b800.jpg"
@@ -5322,69 +5367,65 @@
 Sheet Pan Hash Browns</t>
         </is>
       </c>
-      <c r="G71" s="1" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284591/sheet-pan-hash-browns/</t>
         </is>
       </c>
-      <c r="H71" s="1" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Sheet Pan Hash Browns</t>
         </is>
       </c>
-      <c r="I71" s="1" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J71" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n1 (30 ounce) package frozen hash brown potatoes, thawed\n\n\n½ cup diced onion\n\n\n3 tablespoons canola oil\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon ground paprika\n\n\n  salt and ground pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K71" s="1" t="inlineStr">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 (30 ounce) package frozen hash brown potatoes, thawed\n\n\n½ cup diced onion\n\n\n3 tablespoons canola oil\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon ground paprika\n\n\n  salt and ground pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a large baking sheet with foil and spray generously with cooking spray."},{"recipe_directions":"Add potatoes and onion to a large bowl and stir well. Drizzle oil over the potatoes and stir until the potatoes are coated. Gradually sprinkle garlic powder, paprika, salt, and pepper over the potatoes, tossing to combine. Distribute potatoes evenly on the prepared baking sheet, but don't pack down."},{"recipe_directions":"Bake in the preheated oven until hash browns are golden brown and crispy, 35 to 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L71" s="1" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M71" s="1" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"109\nCalories\n\n\n10g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>1699653967-71</t>
         </is>
       </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E72" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F72" s="1" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mIefuANWXdrY4lRfg1jIInBeFNI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Asiago-Hash-Browns-cb486e40c84c4837a0930fc414605dfa.jpg"
@@ -5396,69 +5437,65 @@
 21 Recipes That Start With Frozen Hash Browns</t>
         </is>
       </c>
-      <c r="G72" s="1" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/frozen-hash-brown-recipes/</t>
         </is>
       </c>
-      <c r="H72" s="1" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>21 Recipes That Start With Frozen Hash Browns</t>
         </is>
       </c>
-      <c r="I72" s="1" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J72" s="1" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K72" s="1" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L72" s="1" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M72" s="1" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>1699653971-72</t>
         </is>
       </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E73" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F73" s="1" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Fe57Rt--8UviLcRthgDWMpzYyBY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1091030-56e7b4877307491398c31945ff5368b1.jpg"
@@ -5471,69 +5508,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G73" s="1" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235546/hash-brown-waffles/</t>
         </is>
       </c>
-      <c r="H73" s="1" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Hash Brown Waffles</t>
         </is>
       </c>
-      <c r="I73" s="1" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 waffles"}]</t>
         </is>
       </c>
-      <c r="J73" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n1 pound yellow potatoes, shredded\n\n\n2 tablespoons vegetable oil\n\n\n1 clove garlic, minced\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon smoked paprika\n\n\n2 large eggs, lightly beaten"}]</t>
-        </is>
-      </c>
-      <c r="K73" s="1" t="inlineStr">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 pound yellow potatoes, shredded\n\n\n2 tablespoons vegetable oil\n\n\n1 clove garlic, minced\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon smoked paprika\n\n\n2 large eggs, lightly beaten'}]</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the waffle iron according to manufacturer's instructions. Grease the waffle iron with cooking spray."},{"recipe_directions":"Place potatoes in a medium bowl. Pour in enough cold water to cover potatoes; soak for 2 to 3 minutes. Drain and rinse to remove starch. Squeeze water from potatoes by hand or roll in a clean kitchen towel and twist the towel to wring out water."},{"recipe_directions":"Toss potatoes with oil, garlic, salt, pepper, and paprika in a large bowl until evenly coated. Stir eggs into potato mixture until well combined."},{"recipe_directions":"Spoon 1/2 of the potato mixture into the preheated waffle iron; close and cook until potatoes are tender and golden brown, 5 to 8 minutes. Repeat with remaining potato mixture."}]</t>
         </is>
       </c>
-      <c r="L73" s="1" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M73" s="1" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"372\nCalories\n\n\n19g \nFat\n\n\n41g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>1699653975-73</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D74" s="1" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F74" s="1" t="inlineStr">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-4SMyeihcJr0K49WV1WOKgfcQiY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/213975-ea1e81c5d6ae41dc910d9e2fefcce336.jpg"
@@ -5546,69 +5579,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G74" s="1" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/43475/hash-brown-quiche/</t>
         </is>
       </c>
-      <c r="H74" s="1" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Hash Brown Quiche</t>
         </is>
       </c>
-      <c r="I74" s="1" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="J74" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 cups shredded hash brown potatoes\n\n\n⅓ cup butter, melted\n\n\n  seasoning salt to taste\n\n\n1 cup diced cooked ham\n\n\n1 cup shredded Cheddar cheese\n\n\n¼ cup chopped onion\n\n\n2 large eggs\n\n\n½ cup milk\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K74" s="1" t="inlineStr">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups shredded hash brown potatoes\n\n\n⅓ cup butter, melted\n\n\n  seasoning salt to taste\n\n\n1 cup diced cooked ham\n\n\n1 cup shredded Cheddar cheese\n\n\n¼ cup chopped onion\n\n\n2 large eggs\n\n\n½ cup milk\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Press hash brown potatoes onto the bottom and sides of a 9-inch pie dish. Drizzle with melted butter and sprinkle with seasoning salt."},{"recipe_directions":"Bake in the preheated oven until potatoes begin to brown, about 20 minutes."},{"recipe_directions":"Combine ham, cheese, and onion in a small bowl. Whisk together eggs, milk, salt, pepper, and a little seasoning salt in a separate bowl."},{"recipe_directions":"When crust is ready, spread ham mixture on the bottom, then cover with egg mixture."},{"recipe_directions":"Reduce oven temperature to 350 degrees F (175 degrees C.) Bake in the preheated oven until filling is puffed and golden brown, 20 to 25 minutes."}]</t>
         </is>
       </c>
-      <c r="L74" s="1" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M74" s="1" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"338\nCalories\n\n\n29g \nFat\n\n\n16g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>1699653979-74</t>
         </is>
       </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D75" s="1" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E75" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F75" s="1" t="inlineStr">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F8ngc-aQUvZbONE1A-Az6ZZb8cA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5900957-e71cd84f544a441c91b6bbabfb96577e.jpg"
@@ -5621,69 +5650,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G75" s="1" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268693/slow-cooker-cheesy-hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="H75" s="1" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Slow Cooker Cheesy Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="I75" s="1" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 10 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="J75" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (30 ounce) package frozen shredded hash brown potatoes \n\n\n½ cup butter, melted\n\n\n2 (10.5 ounce) cans condensed cream of chicken soup\n\n\n¾ cup sour cream\n\n\n2 cups shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="K75" s="1" t="inlineStr">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (30 ounce) package frozen shredded hash brown potatoes \n\n\n½ cup butter, melted\n\n\n2 (10.5 ounce) cans condensed cream of chicken soup\n\n\n¾ cup sour cream\n\n\n2 cups shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place frozen hash browns in a slow cooker. Pour melted butter over hash browns. Pour in condensed soup and sour cream, stirring between each addition. Add Cheddar cheese."},{"recipe_directions":"Cook on Low for 4 to 5 hours. Stir mixture after 2 hours of cooking."}]</t>
         </is>
       </c>
-      <c r="L75" s="1" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M75" s="1" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"336\nCalories\n\n\n29g \nFat\n\n\n21g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>1699653983-75</t>
         </is>
       </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E76" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F76" s="1" t="inlineStr">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8VUnLJuu5Tr_9XAliktex6NlTL0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/997955-f5e50265d70c4228b3bc96388190b3ef.jpg"
@@ -5696,69 +5721,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G76" s="1" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/160132/simply-potatoes-cheesy-hash-browns/</t>
         </is>
       </c>
-      <c r="H76" s="1" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Simply Potatoes Cheesy Hash Browns</t>
         </is>
       </c>
-      <c r="I76" s="1" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8 \n\n\nYield:\n1 2-quart casserole"}]</t>
         </is>
       </c>
-      <c r="J76" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"nonstick cooking spray\n\n\n1 (20 ounce) package Simply Potatoes® Shredded Hash Browns\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n2 cups Crystal Farms® Shredded Cheddar Cheese\n\n\n¾ cup sour cream\n\n\n¼ cup chopped onion\n\n\n¼ cup butter or margarine, melted"},{"ingredients":"1 ½ cups corn flakes, coarsely crushed\n\n\n2 tablespoons butter or margarine, melted"}]</t>
-        </is>
-      </c>
-      <c r="K76" s="1" t="inlineStr">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'nonstick cooking spray\n\n\n1 (20 ounce) package Simply Potatoes® Shredded Hash Browns\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n2 cups Crystal Farms® Shredded Cheddar Cheese\n\n\n¾ cup sour cream\n\n\n¼ cup chopped onion\n\n\n¼ cup butter or margarine, melted'}, {'recipe_ingredients': '1 ½ cups corn flakes, coarsely crushed\n\n\n2 tablespoons butter or margarine, melted'}]</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Coat a 2-quart glass baking dish with nonstick cooking spray."},{"recipe_directions":"Combine hash browns, condensed soup, Cheddar cheese, sour cream, onion, and melted butter for casserole in a large bowl; mix well. Spread into the prepared baking dish."},{"recipe_directions":"Stir together corn flakes and melted butter for topping in a small bowl. Spread evenly over hash brown mixture."},{"recipe_directions":"Bake in the preheated oven until tender and golden brown, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="L76" s="1" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="M76" s="1" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"349\nCalories\n\n\n24g \nFat\n\n\n24g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>1699653987-76</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F77" s="1" t="inlineStr">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qjUk8YjgVZz5ebXS3maLbrAVjJc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1060127-75d42ced0b7c47ceb27ed0dae6d105a5.jpg"
@@ -5771,69 +5792,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G77" s="1" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18511/hash-brown-casserole-ii/</t>
         </is>
       </c>
-      <c r="H77" s="1" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Cheesy Hashbrown Casserole</t>
         </is>
       </c>
-      <c r="I77" s="1" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n1 (3-quart) casserole"}]</t>
         </is>
       </c>
-      <c r="J77" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (2 pound) package frozen hash brown potatoes, thawed\n\n\n2 cups shredded Cheddar cheese\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n1 (8 ounce) container sour cream\n\n\n¾ cup butter, melted, divided\n\n\n½ cup chopped onion\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups crushed cornflakes"}]</t>
-        </is>
-      </c>
-      <c r="K77" s="1" t="inlineStr">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (2 pound) package frozen hash brown potatoes, thawed\n\n\n2 cups shredded Cheddar cheese\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n1 (8 ounce) container sour cream\n\n\n¾ cup butter, melted, divided\n\n\n½ cup chopped onion\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups crushed cornflakes'}]</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Combine hash browns, Cheddar cheese, condensed soup, sour cream, 1/2 cup melted butter, onion, salt, and pepper in a large bowl. Transfer mixture to a 3-quart casserole dish."},{"recipe_directions":"Sauté cornflakes and remaining 1/4 cup melted butter in a saucepan over medium heat. Sprinkle the mixture over the top of the casserole."},{"recipe_directions":"Cover casserole and bake in the preheated oven for 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L77" s="1" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Casseroles"},{"recipe_tags":"Potato Casserole"}]</t>
         </is>
       </c>
-      <c r="M77" s="1" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"321\nCalories\n\n\n28g \nFat\n\n\n21g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>1699653993-77</t>
         </is>
       </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D78" s="1" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E78" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F78" s="1" t="inlineStr">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0VsvjeQGf9QSVNlvFi_4cY-tIFE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/7167635AirFryerHashBrown2x1-3c232a31207d403a851e6e491dc18961.jpg"
@@ -5847,69 +5864,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G78" s="1" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/air-fryer-hash-brown-toast-recipe-7167635</t>
         </is>
       </c>
-      <c r="H78" s="1" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Air Fryer Hash Brown “Toast”</t>
         </is>
       </c>
-      <c r="I78" s="1" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J78" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 frozen hash brown patties"},{"ingredients":"2 avocados\n\n\nsalt and freshly cracked ground black pepper to taste\n\n\n2 teaspoons freshly squeezed lemon juice, or to taste\n\n\n1 tablespoon butter\n\n\n4 large eggs\n\n\n1 cup arugula, or to taste\n\n\n2 teaspoons spicy honey, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K78" s="1" t="inlineStr">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 frozen hash brown patties'}, {'recipe_ingredients': '2 avocados\n\n\nsalt and freshly cracked ground black pepper to taste\n\n\n2 teaspoons freshly squeezed lemon juice, or to taste\n\n\n1 tablespoon butter\n\n\n4 large eggs\n\n\n1 cup arugula, or to taste\n\n\n2 teaspoons spicy honey, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the air fryer to 400 degrees C (200 degrees C)."},{"recipe_directions":"Arrange 4 frozen hash brown potato patties in a single layer in the air fryer basket."},{"recipe_directions":"Cook in the hot air fryer, turning once halfway through, until golden and crispy, 13 to 15 minutes."},{"recipe_directions":"Melt 1 tablespoon butter in a large skillet over medium heat. Crack eggs into the skillet and cook until outer edges become opaque, about 1 minute. Cover, reduce heat to low, and cook until whites are completely set, about 4 minutes."},{"recipe_directions":"Mash avocados in a bowl with a fork and season with salt, pepper, and lemon juice. Spread mashed avocado onto the hot hash browns. Top each with a fried egg and some arugula. Drizzle with hot honey and season with freshly cracked black pepper."}]</t>
         </is>
       </c>
-      <c r="L78" s="1" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="M78" s="1" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"414\nCalories\n\n\n33g \nFat\n\n\n25g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>1699653996-78</t>
         </is>
       </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E79" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F79" s="1" t="inlineStr">
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JhYiQgzct1DUoyqdp_BPi8r9ZxM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1980x2157:1982x2159):format(webp)/7567917-hash-brown-omelet-cups-KH-AR15501-4x3-b0ea9eed5faf453d8017db873b514977.jpg"
@@ -5923,69 +5936,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G79" s="1" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/hash-brown-and-bacon-omelet-cups-recipe-7567917</t>
         </is>
       </c>
-      <c r="H79" s="1" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Hash Brown and Bacon Omelet Cups</t>
         </is>
       </c>
-      <c r="I79" s="1" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="J79" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n3 cups frozen shredded hash brown potatoes, thawed\n\n\n3 tablespoons butter, melted\n\n\n1/8 teaspoon salt\n\n\n1/8 teaspoon freshly ground black pepper\n\n\n2 cups shredded Mexican-style four-cheese blend\n\n\n6 large eggs, lightly beaten\n\n\n1/4 cup chopped red bell pepper\n\n\n1/4 teaspoon crushed red pepper (optional)\n\n\n6 slices bacon, crisp-cooked and chopped\n\n\nchopped fresh chives, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="K79" s="1" t="inlineStr">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n3 cups frozen shredded hash brown potatoes, thawed\n\n\n3 tablespoons butter, melted\n\n\n1/8 teaspoon salt\n\n\n1/8 teaspoon freshly ground black pepper\n\n\n2 cups shredded Mexican-style four-cheese blend\n\n\n6 large eggs, lightly beaten\n\n\n1/4 cup chopped red bell pepper\n\n\n1/4 teaspoon crushed red pepper (optional)\n\n\n6 slices bacon, crisp-cooked and chopped\n\n\nchopped fresh chives, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Grease 12 (2 1/2-inch) muffin cups with cooking spray."},{"recipe_directions":"Wrap hash browns in a clean kitchen towel and squeeze to remove as much moisture as possible. Stir together hash browns, melted butter, salt, and black pepper in a large bowl. Press about 1/4 cup of the hash brown mixture into bottom and up the sides of each prepared muffin cup."},{"recipe_directions":"Bake in the preheated oven until lightly browned, 18 to 20 minutes."},{"recipe_directions":"Meanwhile, stir together cheese, eggs, bell pepper, and crushed red pepper (if using) in a bowl."},{"recipe_directions":"Remove muffin tin from the oven. Reduce oven temperature to 400 degrees F (200 degrees C). Top hash browns with half of the bacon. Top with egg mixture and remaining bacon. Bake until a knife inserted into centers comes out clean, 13 to 15 minutes. Garnish with chives."}]</t>
         </is>
       </c>
-      <c r="L79" s="1" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M79" s="1" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n22g \nFat\n\n\n17g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>1699654000-79</t>
         </is>
       </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/152/breakfast-and-brunch/potatoes/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>Hash Brown Potatoes</t>
         </is>
       </c>
-      <c r="D80" s="1" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/1549/side-dish/potatoes/hash-brown-potatoes/</t>
         </is>
       </c>
-      <c r="E80" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F80" s="1" t="inlineStr">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fErrFImoMtb4NXmmIOcVsLegpSs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1879283-easy-slow-cooker-cheesy-potatoes-connha-4x3-1-afa649e57a0e4b39b90ce6f7387e0302.jpg"
@@ -5999,42 +6008,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G80" s="1" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222530/easy-slow-cooker-cheesy-potatoes/</t>
         </is>
       </c>
-      <c r="H80" s="1" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Easy Slow Cooker Cheesy Potatoes</t>
         </is>
       </c>
-      <c r="I80" s="1" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="J80" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (2 pound) package frozen Southern-style hash brown potatoes, thawed\n\n\n4 cups shredded Cheddar cheese\n\n\n2 (10.5 ounce) cans  condensed cream of chicken soup\n\n\n1 (8 ounce) container sour cream\n\n\n1 cup chopped yellow onion (Optional)\n\n\n1 cup milk\n\n\n1 pinch seasoned salt, or to taste\n\n\n1 teaspoon minced garlic\n\n\n1 cup crushed cheese-flavored crackers (such as Cheez-It), divided"}]</t>
-        </is>
-      </c>
-      <c r="K80" s="1" t="inlineStr">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (2 pound) package frozen Southern-style hash brown potatoes, thawed\n\n\n4 cups shredded Cheddar cheese\n\n\n2 (10.5 ounce) cans  condensed cream of chicken soup\n\n\n1 (8 ounce) container sour cream\n\n\n1 cup chopped yellow onion (Optional)\n\n\n1 cup milk\n\n\n1 pinch seasoned salt, or to taste\n\n\n1 teaspoon minced garlic\n\n\n1 cup crushed cheese-flavored crackers (such as Cheez-It), divided'}]</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix hash brown potatoes, Cheddar cheese, condensed soup, sour cream, onion, milk, seasoned salt, garlic, and 1/2 cup cheese-flavored crackers in a slow cooker."},{"recipe_directions":"Cook on Low, stirring occasionally until cooked through, about 2 hours. Stir and top with remaining 1/2 cup cheese-flavored crackers."}]</t>
         </is>
       </c>
-      <c r="L80" s="1" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="M80" s="1" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"413\nCalories\n\n\n31g \nFat\n\n\n29g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>